--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.20461819016392</v>
+        <v>19.20461819016402</v>
       </c>
       <c r="C2">
-        <v>13.21520428454886</v>
+        <v>13.21520428454871</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.968002563005616</v>
+        <v>9.968002563005705</v>
       </c>
       <c r="F2">
-        <v>63.40381753177424</v>
+        <v>63.40381753177444</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.94676756278702</v>
+        <v>36.94676756278719</v>
       </c>
       <c r="J2">
-        <v>16.91553350324851</v>
+        <v>16.91553350324853</v>
       </c>
       <c r="K2">
-        <v>7.179892666148938</v>
+        <v>7.179892666148902</v>
       </c>
       <c r="L2">
-        <v>10.47030065526093</v>
+        <v>10.47030065526091</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73670361638684</v>
+        <v>17.73670361638685</v>
       </c>
       <c r="C3">
-        <v>12.21254626427456</v>
+        <v>12.2125462642745</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.293713173634918</v>
+        <v>9.293713173635016</v>
       </c>
       <c r="F3">
-        <v>58.98568947585795</v>
+        <v>58.98568947585809</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.63429595838875</v>
+        <v>34.63429595838884</v>
       </c>
       <c r="J3">
         <v>15.63211208082106</v>
       </c>
       <c r="K3">
-        <v>6.743464909992385</v>
+        <v>6.74346490999235</v>
       </c>
       <c r="L3">
-        <v>9.738931459658595</v>
+        <v>9.738931459658581</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.80153948877969</v>
+        <v>16.80153948877966</v>
       </c>
       <c r="C4">
-        <v>11.57276779521731</v>
+        <v>11.5727677952173</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.8687562812287</v>
+        <v>8.868756281228787</v>
       </c>
       <c r="F4">
-        <v>56.18865914635806</v>
+        <v>56.18865914635833</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.18097308003868</v>
+        <v>33.18097308003884</v>
       </c>
       <c r="J4">
-        <v>14.81270737370481</v>
+        <v>14.81270737370485</v>
       </c>
       <c r="K4">
-        <v>6.475341854198774</v>
+        <v>6.475341854198816</v>
       </c>
       <c r="L4">
-        <v>9.279296229146535</v>
+        <v>9.279296229146498</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.4115829883796</v>
+        <v>16.41158298837974</v>
       </c>
       <c r="C5">
-        <v>11.30568311678654</v>
+        <v>11.30568311678663</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.692614685684442</v>
+        <v>8.692614685684253</v>
       </c>
       <c r="F5">
-        <v>55.02671644744546</v>
+        <v>55.02671644744505</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.57980015242322</v>
+        <v>32.57980015242283</v>
       </c>
       <c r="J5">
-        <v>14.47053545295801</v>
+        <v>14.47053545295812</v>
       </c>
       <c r="K5">
-        <v>6.36574674447988</v>
+        <v>6.365746744479754</v>
       </c>
       <c r="L5">
-        <v>9.089012948282251</v>
+        <v>9.089012948282317</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.34628617841013</v>
+        <v>16.34628617841001</v>
       </c>
       <c r="C6">
-        <v>11.26094110211881</v>
+        <v>11.26094110211896</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.663181747116695</v>
+        <v>8.663181747116498</v>
       </c>
       <c r="F6">
-        <v>54.83241826155001</v>
+        <v>54.83241826154966</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.47942444433841</v>
+        <v>32.47942444433811</v>
       </c>
       <c r="J6">
-        <v>14.41320939268668</v>
+        <v>14.41320939268661</v>
       </c>
       <c r="K6">
-        <v>6.347520679163497</v>
+        <v>6.347520679163436</v>
       </c>
       <c r="L6">
-        <v>9.05722827416689</v>
+        <v>9.057228274166775</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.79631673349827</v>
+        <v>16.79631673349832</v>
       </c>
       <c r="C7">
-        <v>11.56919195900969</v>
+        <v>11.56919195900976</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.866393046417718</v>
+        <v>8.866393046417741</v>
       </c>
       <c r="F7">
-        <v>56.17307941433197</v>
+        <v>56.17307941433209</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.17290217982358</v>
+        <v>33.1729021798237</v>
       </c>
       <c r="J7">
-        <v>14.80812661346726</v>
+        <v>14.8081266134673</v>
       </c>
       <c r="K7">
-        <v>6.473865520833706</v>
+        <v>6.473865520833725</v>
       </c>
       <c r="L7">
-        <v>9.276742447345573</v>
+        <v>9.276742447345597</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.70527306567388</v>
+        <v>18.70527306567374</v>
       </c>
       <c r="C8">
-        <v>12.87430693133869</v>
+        <v>12.87430693133867</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.73763263819273</v>
+        <v>9.737632638192521</v>
       </c>
       <c r="F8">
-        <v>61.89728292031778</v>
+        <v>61.89728292031705</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.156003001401</v>
+        <v>36.15600300140036</v>
       </c>
       <c r="J8">
-        <v>16.47928662200239</v>
+        <v>16.4792866220023</v>
       </c>
       <c r="K8">
-        <v>7.02925303659844</v>
+        <v>7.029253036598401</v>
       </c>
       <c r="L8">
-        <v>10.220109430765</v>
+        <v>10.22010943076501</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>22.20014102243075</v>
       </c>
       <c r="C9">
-        <v>15.25783215372709</v>
+        <v>15.25783215372685</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.3719722834943</v>
+        <v>11.37197228349424</v>
       </c>
       <c r="F9">
-        <v>72.56902690351228</v>
+        <v>72.56902690351201</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.77425356575103</v>
+        <v>41.77425356575083</v>
       </c>
       <c r="J9">
-        <v>19.52687412168381</v>
+        <v>19.52687412168373</v>
       </c>
       <c r="K9">
-        <v>8.133259766537847</v>
+        <v>8.133259766537737</v>
       </c>
       <c r="L9">
-        <v>12.00383263955609</v>
+        <v>12.0038326395561</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.65176006188417</v>
+        <v>24.65176006188431</v>
       </c>
       <c r="C10">
-        <v>16.92846799868285</v>
+        <v>16.92846799868279</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.55068663852981</v>
+        <v>12.55068663852958</v>
       </c>
       <c r="F10">
-        <v>80.30501112549298</v>
+        <v>80.30501112549243</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.82709117957926</v>
+        <v>45.82709117957881</v>
       </c>
       <c r="J10">
-        <v>21.65889231956776</v>
+        <v>21.65889231956785</v>
       </c>
       <c r="K10">
-        <v>8.981894074564238</v>
+        <v>8.981894074564094</v>
       </c>
       <c r="L10">
-        <v>13.30510518171848</v>
+        <v>13.30510518171853</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.75259989330353</v>
+        <v>25.75259989330359</v>
       </c>
       <c r="C11">
-        <v>17.67878168295979</v>
+        <v>17.67878168295978</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.08944324073696</v>
+        <v>13.08944324073739</v>
       </c>
       <c r="F11">
-        <v>83.79766946442069</v>
+        <v>83.79766946442201</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.67642094709708</v>
+        <v>47.67642094709824</v>
       </c>
       <c r="J11">
-        <v>22.61519220034951</v>
+        <v>22.61519220034949</v>
       </c>
       <c r="K11">
-        <v>9.384859696394262</v>
+        <v>9.384859696394457</v>
       </c>
       <c r="L11">
-        <v>13.90460122036031</v>
+        <v>13.90460122036023</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.16857955323712</v>
+        <v>26.16857955323719</v>
       </c>
       <c r="C12">
-        <v>17.9623684286612</v>
+        <v>17.96236842866111</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.29466383994418</v>
+        <v>13.29466383994444</v>
       </c>
       <c r="F12">
-        <v>85.12080333468562</v>
+        <v>85.1208033346868</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.38007736141191</v>
+        <v>48.38007736141287</v>
       </c>
       <c r="J12">
-        <v>22.97642290650144</v>
+        <v>22.97642290650147</v>
       </c>
       <c r="K12">
-        <v>9.540882060125622</v>
+        <v>9.540882060125881</v>
       </c>
       <c r="L12">
-        <v>14.1337739081172</v>
+        <v>14.13377390811721</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.07900784111565</v>
+        <v>26.07900784111564</v>
       </c>
       <c r="C13">
-        <v>17.90130107905763</v>
+        <v>17.90130107905773</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.2503962572826</v>
+        <v>13.25039625728273</v>
       </c>
       <c r="F13">
-        <v>84.83573601788838</v>
+        <v>84.83573601788899</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.22833431020491</v>
+        <v>48.22833431020536</v>
       </c>
       <c r="J13">
-        <v>22.8986456893854</v>
+        <v>22.89864568938543</v>
       </c>
       <c r="K13">
-        <v>9.507108377908622</v>
+        <v>9.507108377908729</v>
       </c>
       <c r="L13">
-        <v>14.08430117189075</v>
+        <v>14.08430117189074</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.78683257093847</v>
+        <v>25.78683257093846</v>
       </c>
       <c r="C14">
-        <v>17.70211772042797</v>
+        <v>17.70211772042814</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.10629701920032</v>
+        <v>13.1062970192005</v>
       </c>
       <c r="F14">
-        <v>83.90648431668352</v>
+        <v>83.90648431668423</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.73422663558051</v>
+        <v>47.73422663558109</v>
       </c>
       <c r="J14">
-        <v>22.64492189079906</v>
+        <v>22.64492189079909</v>
       </c>
       <c r="K14">
-        <v>9.397620307383075</v>
+        <v>9.397620307383225</v>
       </c>
       <c r="L14">
-        <v>13.92340494546827</v>
+        <v>13.92340494546835</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.60779224327592</v>
+        <v>25.60779224327581</v>
       </c>
       <c r="C15">
-        <v>17.58007066456947</v>
+        <v>17.58007066456942</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.01821809589637</v>
+        <v>13.01821809589636</v>
       </c>
       <c r="F15">
-        <v>83.33751114568784</v>
+        <v>83.33751114568763</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.43209676716571</v>
+        <v>47.4320967671655</v>
       </c>
       <c r="J15">
-        <v>22.48942744534983</v>
+        <v>22.48942744534979</v>
       </c>
       <c r="K15">
-        <v>9.331036574482615</v>
+        <v>9.331036574482601</v>
       </c>
       <c r="L15">
-        <v>13.82516916357036</v>
+        <v>13.82516916357037</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.57962225100694</v>
+        <v>24.5796222510069</v>
       </c>
       <c r="C16">
-        <v>16.87930657691285</v>
+        <v>16.87930657691283</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.5155952976814</v>
+        <v>12.51559529768127</v>
       </c>
       <c r="F16">
-        <v>80.0765697912869</v>
+        <v>80.07656979128632</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.70654779673535</v>
+        <v>45.7065477967349</v>
       </c>
       <c r="J16">
-        <v>21.59620689217725</v>
+        <v>21.59620689217723</v>
       </c>
       <c r="K16">
-        <v>8.95597859875617</v>
+        <v>8.955978598756023</v>
       </c>
       <c r="L16">
-        <v>13.26616356577678</v>
+        <v>13.26616356577676</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.94593522405248</v>
+        <v>23.94593522405259</v>
       </c>
       <c r="C17">
-        <v>16.4474756494053</v>
+        <v>16.44747564940534</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.20843147733762</v>
+        <v>12.20843147733787</v>
       </c>
       <c r="F17">
-        <v>78.07204277031674</v>
+        <v>78.07204277031744</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.65101794881501</v>
+        <v>44.65101794881555</v>
       </c>
       <c r="J17">
-        <v>21.04544008485135</v>
+        <v>21.0454400848515</v>
       </c>
       <c r="K17">
-        <v>8.730850837854504</v>
+        <v>8.7308508378546</v>
       </c>
       <c r="L17">
-        <v>12.92583886389247</v>
+        <v>12.92583886389252</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.58001219657915</v>
+        <v>23.58001219657927</v>
       </c>
       <c r="C18">
-        <v>16.19812677260436</v>
+        <v>16.19812677260435</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.03193748724354</v>
+        <v>12.03193748724336</v>
       </c>
       <c r="F18">
-        <v>76.91628048615435</v>
+        <v>76.91628048615378</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.04425048392582</v>
+        <v>44.0442504839253</v>
       </c>
       <c r="J18">
-        <v>20.72730083792937</v>
+        <v>20.72730083792938</v>
       </c>
       <c r="K18">
-        <v>8.602882542709411</v>
+        <v>8.602882542709287</v>
       </c>
       <c r="L18">
-        <v>12.73072439595836</v>
+        <v>12.73072439595837</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.45583768511854</v>
+        <v>23.45583768511863</v>
       </c>
       <c r="C19">
-        <v>16.11351215051026</v>
+        <v>16.1135121505102</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.97218849841632</v>
+        <v>11.97218849841613</v>
       </c>
       <c r="F19">
-        <v>76.52436249525995</v>
+        <v>76.52436249525924</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.83880293333029</v>
+        <v>43.8388029333297</v>
       </c>
       <c r="J19">
-        <v>20.61932407644964</v>
+        <v>20.61932407644963</v>
       </c>
       <c r="K19">
-        <v>8.559789611343364</v>
+        <v>8.559789611343179</v>
       </c>
       <c r="L19">
-        <v>12.66474228876105</v>
+        <v>12.66474228876104</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.01353398918246</v>
+        <v>24.01353398918242</v>
       </c>
       <c r="C20">
-        <v>16.49353980966811</v>
+        <v>16.49353980966809</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.24110579247632</v>
+        <v>12.24110579247638</v>
       </c>
       <c r="F20">
-        <v>78.28569130166174</v>
+        <v>78.28569130166201</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.76332908096995</v>
+        <v>44.76332908097012</v>
       </c>
       <c r="J20">
-        <v>21.10420336247489</v>
+        <v>21.10420336247493</v>
       </c>
       <c r="K20">
-        <v>8.754652499148987</v>
+        <v>8.754652499148975</v>
       </c>
       <c r="L20">
-        <v>12.96199481949668</v>
+        <v>12.96199481949664</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.87266447593716</v>
+        <v>25.87266447593709</v>
       </c>
       <c r="C21">
-        <v>17.76062951018801</v>
+        <v>17.76062951018792</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.14858183031727</v>
+        <v>13.14858183031684</v>
       </c>
       <c r="F21">
-        <v>84.17937256764147</v>
+        <v>84.17937256764027</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.87924289150897</v>
+        <v>47.87924289150796</v>
       </c>
       <c r="J21">
-        <v>22.7194613843114</v>
+        <v>22.71946138431133</v>
       </c>
       <c r="K21">
-        <v>9.429677190990878</v>
+        <v>9.429677190990631</v>
       </c>
       <c r="L21">
-        <v>13.97059547714385</v>
+        <v>13.97059547714377</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.08336346736169</v>
+        <v>27.08336346736158</v>
       </c>
       <c r="C22">
         <v>18.58616373748934</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.74928289959503</v>
+        <v>13.74928289959453</v>
       </c>
       <c r="F22">
-        <v>88.03739123719433</v>
+        <v>88.03739123719292</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49.93702338608282</v>
+        <v>49.93702338608162</v>
       </c>
       <c r="J22">
-        <v>23.77059018793748</v>
+        <v>23.77059018793741</v>
       </c>
       <c r="K22">
-        <v>9.891520959068487</v>
+        <v>9.891520959068185</v>
       </c>
       <c r="L22">
-        <v>14.64308535426334</v>
+        <v>14.64308535426324</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.437106771908</v>
+        <v>26.43710677190814</v>
       </c>
       <c r="C23">
-        <v>18.14545444844467</v>
+        <v>18.14545444844476</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.4276338999403</v>
+        <v>13.4276338999406</v>
       </c>
       <c r="F23">
-        <v>85.97594532139404</v>
+        <v>85.97594532139485</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.83573839708412</v>
+        <v>48.83573839708482</v>
       </c>
       <c r="J23">
-        <v>23.20957385244975</v>
+        <v>23.20957385244987</v>
       </c>
       <c r="K23">
-        <v>9.642723717636452</v>
+        <v>9.642723717636491</v>
       </c>
       <c r="L23">
-        <v>14.28250710001031</v>
+        <v>14.28250710001029</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.98297768099768</v>
+        <v>23.98297768099763</v>
       </c>
       <c r="C24">
-        <v>16.47271763877673</v>
+        <v>16.47271763877669</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.22633348726584</v>
+        <v>12.22633348726539</v>
       </c>
       <c r="F24">
-        <v>78.18911149287365</v>
+        <v>78.18911149287263</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.71255317872748</v>
+        <v>44.71255317872652</v>
       </c>
       <c r="J24">
-        <v>21.07764122013171</v>
+        <v>21.07764122013164</v>
       </c>
       <c r="K24">
-        <v>8.743887289471854</v>
+        <v>8.743887289471555</v>
       </c>
       <c r="L24">
         <v>12.94564709810193</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.27809743381561</v>
+        <v>21.27809743381569</v>
       </c>
       <c r="C25">
-        <v>14.62939593574881</v>
+        <v>14.62939593574843</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.93572757666154</v>
+        <v>10.9357275766615</v>
       </c>
       <c r="F25">
-        <v>69.69658883884125</v>
+        <v>69.696588838841</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.27345189041505</v>
+        <v>40.27345189041484</v>
       </c>
       <c r="J25">
-        <v>18.72397212998311</v>
+        <v>18.72397212998305</v>
       </c>
       <c r="K25">
-        <v>7.830445224829216</v>
+        <v>7.830445224829067</v>
       </c>
       <c r="L25">
-        <v>11.52557238427741</v>
+        <v>11.52557238427734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.20461819016402</v>
+        <v>19.20461819016392</v>
       </c>
       <c r="C2">
-        <v>13.21520428454871</v>
+        <v>13.21520428454886</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.968002563005705</v>
+        <v>9.968002563005616</v>
       </c>
       <c r="F2">
-        <v>63.40381753177444</v>
+        <v>63.40381753177424</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.94676756278719</v>
+        <v>36.94676756278702</v>
       </c>
       <c r="J2">
-        <v>16.91553350324853</v>
+        <v>16.91553350324851</v>
       </c>
       <c r="K2">
-        <v>7.179892666148902</v>
+        <v>7.179892666148938</v>
       </c>
       <c r="L2">
-        <v>10.47030065526091</v>
+        <v>10.47030065526093</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73670361638685</v>
+        <v>17.73670361638684</v>
       </c>
       <c r="C3">
-        <v>12.2125462642745</v>
+        <v>12.21254626427456</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.293713173635016</v>
+        <v>9.293713173634918</v>
       </c>
       <c r="F3">
-        <v>58.98568947585809</v>
+        <v>58.98568947585795</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.63429595838884</v>
+        <v>34.63429595838875</v>
       </c>
       <c r="J3">
         <v>15.63211208082106</v>
       </c>
       <c r="K3">
-        <v>6.74346490999235</v>
+        <v>6.743464909992385</v>
       </c>
       <c r="L3">
-        <v>9.738931459658581</v>
+        <v>9.738931459658595</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.80153948877966</v>
+        <v>16.80153948877969</v>
       </c>
       <c r="C4">
-        <v>11.5727677952173</v>
+        <v>11.57276779521731</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.868756281228787</v>
+        <v>8.8687562812287</v>
       </c>
       <c r="F4">
-        <v>56.18865914635833</v>
+        <v>56.18865914635806</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.18097308003884</v>
+        <v>33.18097308003868</v>
       </c>
       <c r="J4">
-        <v>14.81270737370485</v>
+        <v>14.81270737370481</v>
       </c>
       <c r="K4">
-        <v>6.475341854198816</v>
+        <v>6.475341854198774</v>
       </c>
       <c r="L4">
-        <v>9.279296229146498</v>
+        <v>9.279296229146535</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.41158298837974</v>
+        <v>16.4115829883796</v>
       </c>
       <c r="C5">
-        <v>11.30568311678663</v>
+        <v>11.30568311678654</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.692614685684253</v>
+        <v>8.692614685684442</v>
       </c>
       <c r="F5">
-        <v>55.02671644744505</v>
+        <v>55.02671644744546</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.57980015242283</v>
+        <v>32.57980015242322</v>
       </c>
       <c r="J5">
-        <v>14.47053545295812</v>
+        <v>14.47053545295801</v>
       </c>
       <c r="K5">
-        <v>6.365746744479754</v>
+        <v>6.36574674447988</v>
       </c>
       <c r="L5">
-        <v>9.089012948282317</v>
+        <v>9.089012948282251</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.34628617841001</v>
+        <v>16.34628617841013</v>
       </c>
       <c r="C6">
-        <v>11.26094110211896</v>
+        <v>11.26094110211881</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.663181747116498</v>
+        <v>8.663181747116695</v>
       </c>
       <c r="F6">
-        <v>54.83241826154966</v>
+        <v>54.83241826155001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.47942444433811</v>
+        <v>32.47942444433841</v>
       </c>
       <c r="J6">
-        <v>14.41320939268661</v>
+        <v>14.41320939268668</v>
       </c>
       <c r="K6">
-        <v>6.347520679163436</v>
+        <v>6.347520679163497</v>
       </c>
       <c r="L6">
-        <v>9.057228274166775</v>
+        <v>9.05722827416689</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.79631673349832</v>
+        <v>16.79631673349827</v>
       </c>
       <c r="C7">
-        <v>11.56919195900976</v>
+        <v>11.56919195900969</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.866393046417741</v>
+        <v>8.866393046417718</v>
       </c>
       <c r="F7">
-        <v>56.17307941433209</v>
+        <v>56.17307941433197</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.1729021798237</v>
+        <v>33.17290217982358</v>
       </c>
       <c r="J7">
-        <v>14.8081266134673</v>
+        <v>14.80812661346726</v>
       </c>
       <c r="K7">
-        <v>6.473865520833725</v>
+        <v>6.473865520833706</v>
       </c>
       <c r="L7">
-        <v>9.276742447345597</v>
+        <v>9.276742447345573</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.70527306567374</v>
+        <v>18.70527306567388</v>
       </c>
       <c r="C8">
-        <v>12.87430693133867</v>
+        <v>12.87430693133869</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.737632638192521</v>
+        <v>9.73763263819273</v>
       </c>
       <c r="F8">
-        <v>61.89728292031705</v>
+        <v>61.89728292031778</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.15600300140036</v>
+        <v>36.156003001401</v>
       </c>
       <c r="J8">
-        <v>16.4792866220023</v>
+        <v>16.47928662200239</v>
       </c>
       <c r="K8">
-        <v>7.029253036598401</v>
+        <v>7.02925303659844</v>
       </c>
       <c r="L8">
-        <v>10.22010943076501</v>
+        <v>10.220109430765</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>22.20014102243075</v>
       </c>
       <c r="C9">
-        <v>15.25783215372685</v>
+        <v>15.25783215372709</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.37197228349424</v>
+        <v>11.3719722834943</v>
       </c>
       <c r="F9">
-        <v>72.56902690351201</v>
+        <v>72.56902690351228</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.77425356575083</v>
+        <v>41.77425356575103</v>
       </c>
       <c r="J9">
-        <v>19.52687412168373</v>
+        <v>19.52687412168381</v>
       </c>
       <c r="K9">
-        <v>8.133259766537737</v>
+        <v>8.133259766537847</v>
       </c>
       <c r="L9">
-        <v>12.0038326395561</v>
+        <v>12.00383263955609</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.65176006188431</v>
+        <v>24.65176006188417</v>
       </c>
       <c r="C10">
-        <v>16.92846799868279</v>
+        <v>16.92846799868285</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.55068663852958</v>
+        <v>12.55068663852981</v>
       </c>
       <c r="F10">
-        <v>80.30501112549243</v>
+        <v>80.30501112549298</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.82709117957881</v>
+        <v>45.82709117957926</v>
       </c>
       <c r="J10">
-        <v>21.65889231956785</v>
+        <v>21.65889231956776</v>
       </c>
       <c r="K10">
-        <v>8.981894074564094</v>
+        <v>8.981894074564238</v>
       </c>
       <c r="L10">
-        <v>13.30510518171853</v>
+        <v>13.30510518171848</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.75259989330359</v>
+        <v>25.75259989330353</v>
       </c>
       <c r="C11">
-        <v>17.67878168295978</v>
+        <v>17.67878168295979</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.08944324073739</v>
+        <v>13.08944324073696</v>
       </c>
       <c r="F11">
-        <v>83.79766946442201</v>
+        <v>83.79766946442069</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.67642094709824</v>
+        <v>47.67642094709708</v>
       </c>
       <c r="J11">
-        <v>22.61519220034949</v>
+        <v>22.61519220034951</v>
       </c>
       <c r="K11">
-        <v>9.384859696394457</v>
+        <v>9.384859696394262</v>
       </c>
       <c r="L11">
-        <v>13.90460122036023</v>
+        <v>13.90460122036031</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.16857955323719</v>
+        <v>26.16857955323712</v>
       </c>
       <c r="C12">
-        <v>17.96236842866111</v>
+        <v>17.9623684286612</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.29466383994444</v>
+        <v>13.29466383994418</v>
       </c>
       <c r="F12">
-        <v>85.1208033346868</v>
+        <v>85.12080333468562</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.38007736141287</v>
+        <v>48.38007736141191</v>
       </c>
       <c r="J12">
-        <v>22.97642290650147</v>
+        <v>22.97642290650144</v>
       </c>
       <c r="K12">
-        <v>9.540882060125881</v>
+        <v>9.540882060125622</v>
       </c>
       <c r="L12">
-        <v>14.13377390811721</v>
+        <v>14.1337739081172</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.07900784111564</v>
+        <v>26.07900784111565</v>
       </c>
       <c r="C13">
-        <v>17.90130107905773</v>
+        <v>17.90130107905763</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.25039625728273</v>
+        <v>13.2503962572826</v>
       </c>
       <c r="F13">
-        <v>84.83573601788899</v>
+        <v>84.83573601788838</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.22833431020536</v>
+        <v>48.22833431020491</v>
       </c>
       <c r="J13">
-        <v>22.89864568938543</v>
+        <v>22.8986456893854</v>
       </c>
       <c r="K13">
-        <v>9.507108377908729</v>
+        <v>9.507108377908622</v>
       </c>
       <c r="L13">
-        <v>14.08430117189074</v>
+        <v>14.08430117189075</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.78683257093846</v>
+        <v>25.78683257093847</v>
       </c>
       <c r="C14">
-        <v>17.70211772042814</v>
+        <v>17.70211772042797</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.1062970192005</v>
+        <v>13.10629701920032</v>
       </c>
       <c r="F14">
-        <v>83.90648431668423</v>
+        <v>83.90648431668352</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.73422663558109</v>
+        <v>47.73422663558051</v>
       </c>
       <c r="J14">
-        <v>22.64492189079909</v>
+        <v>22.64492189079906</v>
       </c>
       <c r="K14">
-        <v>9.397620307383225</v>
+        <v>9.397620307383075</v>
       </c>
       <c r="L14">
-        <v>13.92340494546835</v>
+        <v>13.92340494546827</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.60779224327581</v>
+        <v>25.60779224327592</v>
       </c>
       <c r="C15">
-        <v>17.58007066456942</v>
+        <v>17.58007066456947</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.01821809589636</v>
+        <v>13.01821809589637</v>
       </c>
       <c r="F15">
-        <v>83.33751114568763</v>
+        <v>83.33751114568784</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.4320967671655</v>
+        <v>47.43209676716571</v>
       </c>
       <c r="J15">
-        <v>22.48942744534979</v>
+        <v>22.48942744534983</v>
       </c>
       <c r="K15">
-        <v>9.331036574482601</v>
+        <v>9.331036574482615</v>
       </c>
       <c r="L15">
-        <v>13.82516916357037</v>
+        <v>13.82516916357036</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.5796222510069</v>
+        <v>24.57962225100694</v>
       </c>
       <c r="C16">
-        <v>16.87930657691283</v>
+        <v>16.87930657691285</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.51559529768127</v>
+        <v>12.5155952976814</v>
       </c>
       <c r="F16">
-        <v>80.07656979128632</v>
+        <v>80.0765697912869</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.7065477967349</v>
+        <v>45.70654779673535</v>
       </c>
       <c r="J16">
-        <v>21.59620689217723</v>
+        <v>21.59620689217725</v>
       </c>
       <c r="K16">
-        <v>8.955978598756023</v>
+        <v>8.95597859875617</v>
       </c>
       <c r="L16">
-        <v>13.26616356577676</v>
+        <v>13.26616356577678</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.94593522405259</v>
+        <v>23.94593522405248</v>
       </c>
       <c r="C17">
-        <v>16.44747564940534</v>
+        <v>16.4474756494053</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.20843147733787</v>
+        <v>12.20843147733762</v>
       </c>
       <c r="F17">
-        <v>78.07204277031744</v>
+        <v>78.07204277031674</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.65101794881555</v>
+        <v>44.65101794881501</v>
       </c>
       <c r="J17">
-        <v>21.0454400848515</v>
+        <v>21.04544008485135</v>
       </c>
       <c r="K17">
-        <v>8.7308508378546</v>
+        <v>8.730850837854504</v>
       </c>
       <c r="L17">
-        <v>12.92583886389252</v>
+        <v>12.92583886389247</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.58001219657927</v>
+        <v>23.58001219657915</v>
       </c>
       <c r="C18">
-        <v>16.19812677260435</v>
+        <v>16.19812677260436</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.03193748724336</v>
+        <v>12.03193748724354</v>
       </c>
       <c r="F18">
-        <v>76.91628048615378</v>
+        <v>76.91628048615435</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.0442504839253</v>
+        <v>44.04425048392582</v>
       </c>
       <c r="J18">
-        <v>20.72730083792938</v>
+        <v>20.72730083792937</v>
       </c>
       <c r="K18">
-        <v>8.602882542709287</v>
+        <v>8.602882542709411</v>
       </c>
       <c r="L18">
-        <v>12.73072439595837</v>
+        <v>12.73072439595836</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.45583768511863</v>
+        <v>23.45583768511854</v>
       </c>
       <c r="C19">
-        <v>16.1135121505102</v>
+        <v>16.11351215051026</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.97218849841613</v>
+        <v>11.97218849841632</v>
       </c>
       <c r="F19">
-        <v>76.52436249525924</v>
+        <v>76.52436249525995</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.8388029333297</v>
+        <v>43.83880293333029</v>
       </c>
       <c r="J19">
-        <v>20.61932407644963</v>
+        <v>20.61932407644964</v>
       </c>
       <c r="K19">
-        <v>8.559789611343179</v>
+        <v>8.559789611343364</v>
       </c>
       <c r="L19">
-        <v>12.66474228876104</v>
+        <v>12.66474228876105</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.01353398918242</v>
+        <v>24.01353398918246</v>
       </c>
       <c r="C20">
-        <v>16.49353980966809</v>
+        <v>16.49353980966811</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.24110579247638</v>
+        <v>12.24110579247632</v>
       </c>
       <c r="F20">
-        <v>78.28569130166201</v>
+        <v>78.28569130166174</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.76332908097012</v>
+        <v>44.76332908096995</v>
       </c>
       <c r="J20">
-        <v>21.10420336247493</v>
+        <v>21.10420336247489</v>
       </c>
       <c r="K20">
-        <v>8.754652499148975</v>
+        <v>8.754652499148987</v>
       </c>
       <c r="L20">
-        <v>12.96199481949664</v>
+        <v>12.96199481949668</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.87266447593709</v>
+        <v>25.87266447593716</v>
       </c>
       <c r="C21">
-        <v>17.76062951018792</v>
+        <v>17.76062951018801</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.14858183031684</v>
+        <v>13.14858183031727</v>
       </c>
       <c r="F21">
-        <v>84.17937256764027</v>
+        <v>84.17937256764147</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.87924289150796</v>
+        <v>47.87924289150897</v>
       </c>
       <c r="J21">
-        <v>22.71946138431133</v>
+        <v>22.7194613843114</v>
       </c>
       <c r="K21">
-        <v>9.429677190990631</v>
+        <v>9.429677190990878</v>
       </c>
       <c r="L21">
-        <v>13.97059547714377</v>
+        <v>13.97059547714385</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.08336346736158</v>
+        <v>27.08336346736169</v>
       </c>
       <c r="C22">
         <v>18.58616373748934</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.74928289959453</v>
+        <v>13.74928289959503</v>
       </c>
       <c r="F22">
-        <v>88.03739123719292</v>
+        <v>88.03739123719433</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49.93702338608162</v>
+        <v>49.93702338608282</v>
       </c>
       <c r="J22">
-        <v>23.77059018793741</v>
+        <v>23.77059018793748</v>
       </c>
       <c r="K22">
-        <v>9.891520959068185</v>
+        <v>9.891520959068487</v>
       </c>
       <c r="L22">
-        <v>14.64308535426324</v>
+        <v>14.64308535426334</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.43710677190814</v>
+        <v>26.437106771908</v>
       </c>
       <c r="C23">
-        <v>18.14545444844476</v>
+        <v>18.14545444844467</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.4276338999406</v>
+        <v>13.4276338999403</v>
       </c>
       <c r="F23">
-        <v>85.97594532139485</v>
+        <v>85.97594532139404</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.83573839708482</v>
+        <v>48.83573839708412</v>
       </c>
       <c r="J23">
-        <v>23.20957385244987</v>
+        <v>23.20957385244975</v>
       </c>
       <c r="K23">
-        <v>9.642723717636491</v>
+        <v>9.642723717636452</v>
       </c>
       <c r="L23">
-        <v>14.28250710001029</v>
+        <v>14.28250710001031</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.98297768099763</v>
+        <v>23.98297768099768</v>
       </c>
       <c r="C24">
-        <v>16.47271763877669</v>
+        <v>16.47271763877673</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.22633348726539</v>
+        <v>12.22633348726584</v>
       </c>
       <c r="F24">
-        <v>78.18911149287263</v>
+        <v>78.18911149287365</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.71255317872652</v>
+        <v>44.71255317872748</v>
       </c>
       <c r="J24">
-        <v>21.07764122013164</v>
+        <v>21.07764122013171</v>
       </c>
       <c r="K24">
-        <v>8.743887289471555</v>
+        <v>8.743887289471854</v>
       </c>
       <c r="L24">
         <v>12.94564709810193</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.27809743381569</v>
+        <v>21.27809743381561</v>
       </c>
       <c r="C25">
-        <v>14.62939593574843</v>
+        <v>14.62939593574881</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.9357275766615</v>
+        <v>10.93572757666154</v>
       </c>
       <c r="F25">
-        <v>69.696588838841</v>
+        <v>69.69658883884125</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.27345189041484</v>
+        <v>40.27345189041505</v>
       </c>
       <c r="J25">
-        <v>18.72397212998305</v>
+        <v>18.72397212998311</v>
       </c>
       <c r="K25">
-        <v>7.830445224829067</v>
+        <v>7.830445224829216</v>
       </c>
       <c r="L25">
-        <v>11.52557238427734</v>
+        <v>11.52557238427741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.20461819016392</v>
+        <v>19.07437736887199</v>
       </c>
       <c r="C2">
-        <v>13.21520428454886</v>
+        <v>13.05375816225106</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.968002563005616</v>
+        <v>10.10660602053101</v>
       </c>
       <c r="F2">
-        <v>63.40381753177424</v>
+        <v>63.39010349048041</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.087301717084614</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.94676756278702</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.91553350324851</v>
+        <v>37.02720108883599</v>
       </c>
       <c r="K2">
-        <v>7.179892666148938</v>
+        <v>16.75747957453754</v>
       </c>
       <c r="L2">
-        <v>10.47030065526093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.256373902498971</v>
+      </c>
+      <c r="M2">
+        <v>10.37726345063495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73670361638684</v>
+        <v>17.61988756759486</v>
       </c>
       <c r="C3">
-        <v>12.21254626427456</v>
+        <v>12.058591144697</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.293713173634918</v>
+        <v>9.438826789929177</v>
       </c>
       <c r="F3">
-        <v>58.98568947585795</v>
+        <v>58.98994242513722</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.102696264360512</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.63429595838875</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.63211208082106</v>
+        <v>34.73002306447908</v>
       </c>
       <c r="K3">
-        <v>6.743464909992385</v>
+        <v>15.48247460345547</v>
       </c>
       <c r="L3">
-        <v>9.738931459658595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.822422262844718</v>
+      </c>
+      <c r="M3">
+        <v>9.64781921350286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.80153948877969</v>
+        <v>16.69373735426129</v>
       </c>
       <c r="C4">
-        <v>11.57276779521731</v>
+        <v>11.42362348205357</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.8687562812287</v>
+        <v>9.018306337971561</v>
       </c>
       <c r="F4">
-        <v>56.18865914635806</v>
+        <v>56.20450226768578</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.112228453222136</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.18097308003868</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>14.81270737370481</v>
+        <v>33.28662256077995</v>
       </c>
       <c r="K4">
-        <v>6.475341854198774</v>
+        <v>14.66850269087764</v>
       </c>
       <c r="L4">
-        <v>9.279296229146535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.555777076872279</v>
+      </c>
+      <c r="M4">
+        <v>9.189238519001574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.4115829883796</v>
+        <v>16.30767209682376</v>
       </c>
       <c r="C5">
-        <v>11.30568311678654</v>
+        <v>11.15856093093715</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.692614685684442</v>
+        <v>8.844092649548971</v>
       </c>
       <c r="F5">
-        <v>55.02671644744546</v>
+        <v>55.04745307314298</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.116140834662007</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.57980015242322</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.47053545295801</v>
+        <v>32.68964455101452</v>
       </c>
       <c r="K5">
-        <v>6.36574674447988</v>
+        <v>14.32862235028459</v>
       </c>
       <c r="L5">
-        <v>9.089012948282251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.446777660969852</v>
+      </c>
+      <c r="M5">
+        <v>8.999355958919422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.34628617841013</v>
+        <v>16.24303535412743</v>
       </c>
       <c r="C6">
-        <v>11.26094110211881</v>
+        <v>11.11415866587446</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.663181747116695</v>
+        <v>8.814987372801767</v>
       </c>
       <c r="F6">
-        <v>54.83241826155001</v>
+        <v>54.85397859503407</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.116792380795565</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.47942444433841</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.41320939268668</v>
+        <v>32.58997503263986</v>
       </c>
       <c r="K6">
-        <v>6.347520679163497</v>
+        <v>14.27168182486711</v>
       </c>
       <c r="L6">
-        <v>9.05722827416689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.428650219350601</v>
+      </c>
+      <c r="M6">
+        <v>8.9676361391402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.79631673349827</v>
+        <v>16.68856616099046</v>
       </c>
       <c r="C7">
-        <v>11.56919195900969</v>
+        <v>11.42007465587809</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.866393046417718</v>
+        <v>9.015968604776438</v>
       </c>
       <c r="F7">
-        <v>56.17307941433197</v>
+        <v>56.18898780251192</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.112281094192799</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.17290217982358</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>14.80812661346726</v>
+        <v>33.27860759950993</v>
       </c>
       <c r="K7">
-        <v>6.473865520833706</v>
+        <v>14.66395250642988</v>
       </c>
       <c r="L7">
-        <v>9.276742447345573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.554308798922015</v>
+      </c>
+      <c r="M7">
+        <v>9.186690255747818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.70527306567388</v>
+        <v>18.57951480134176</v>
       </c>
       <c r="C8">
-        <v>12.87430693133869</v>
+        <v>12.71540503375059</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.73763263819273</v>
+        <v>9.878395362171107</v>
       </c>
       <c r="F8">
-        <v>61.89728292031778</v>
+        <v>61.88966662573907</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.092598240148296</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.156003001401</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>16.47928662200239</v>
+        <v>36.24161065221074</v>
       </c>
       <c r="K8">
-        <v>7.02925303659844</v>
+        <v>16.32408627799943</v>
       </c>
       <c r="L8">
-        <v>10.220109430765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.106599631214223</v>
+      </c>
+      <c r="M8">
+        <v>10.12776458953412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.20014102243075</v>
+        <v>22.0442103547477</v>
       </c>
       <c r="C9">
-        <v>15.25783215372709</v>
+        <v>15.08101540552231</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.3719722834943</v>
+        <v>11.49850920632262</v>
       </c>
       <c r="F9">
-        <v>72.56902690351228</v>
+        <v>72.49758742698097</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.054214424136431</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.77425356575103</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>19.52687412168381</v>
+        <v>41.8237363163476</v>
       </c>
       <c r="K9">
-        <v>8.133259766537847</v>
+        <v>19.35164691678862</v>
       </c>
       <c r="L9">
-        <v>12.00383263955609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.203950397208363</v>
+      </c>
+      <c r="M9">
+        <v>11.90576924897884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.65176006188417</v>
+        <v>24.47546515462047</v>
       </c>
       <c r="C10">
-        <v>16.92846799868285</v>
+        <v>16.73861496567417</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.55068663852981</v>
+        <v>12.66799857302685</v>
       </c>
       <c r="F10">
-        <v>80.30501112549298</v>
+        <v>80.20268446076798</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.025425764742562</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.82709117957926</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.65889231956776</v>
+        <v>45.85040836183639</v>
       </c>
       <c r="K10">
-        <v>8.981894074564238</v>
+        <v>21.46912458317471</v>
       </c>
       <c r="L10">
-        <v>13.30510518171848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>9.046857073954975</v>
+      </c>
+      <c r="M10">
+        <v>13.20163787019047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.75259989330353</v>
+        <v>25.56710355533786</v>
       </c>
       <c r="C11">
-        <v>17.67878168295979</v>
+        <v>17.48283278222272</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.08944324073696</v>
+        <v>13.20265215932943</v>
       </c>
       <c r="F11">
-        <v>83.79766946442069</v>
+        <v>83.68023579766238</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.011988305204875</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.67642094709708</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>22.61519220034951</v>
+        <v>47.68740163534211</v>
       </c>
       <c r="K11">
-        <v>9.384859696394262</v>
+        <v>22.41861444443571</v>
       </c>
       <c r="L11">
-        <v>13.90460122036031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.446865450728639</v>
+      </c>
+      <c r="M11">
+        <v>13.79824289414749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.16857955323712</v>
+        <v>25.97957300331683</v>
       </c>
       <c r="C12">
-        <v>17.9623684286612</v>
+        <v>17.76406492375828</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.29466383994418</v>
+        <v>13.40631309093809</v>
       </c>
       <c r="F12">
-        <v>85.12080333468562</v>
+        <v>84.99740324846363</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.006827266049522</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.38007736141191</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>22.97642290650144</v>
+        <v>48.38626210144422</v>
       </c>
       <c r="K12">
-        <v>9.540882060125622</v>
+        <v>22.7772112981304</v>
       </c>
       <c r="L12">
-        <v>14.1337739081172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>9.601695683283065</v>
+      </c>
+      <c r="M12">
+        <v>14.02623615065079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.07900784111565</v>
+        <v>25.890759086804</v>
       </c>
       <c r="C13">
-        <v>17.90130107905763</v>
+        <v>17.7035071756466</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.2503962572826</v>
+        <v>13.3623820529529</v>
       </c>
       <c r="F13">
-        <v>84.83573601788838</v>
+        <v>84.71363371350907</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.007942456968337</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.22833431020491</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>22.8986456893854</v>
+        <v>48.2355587104611</v>
       </c>
       <c r="K13">
-        <v>9.507108377908622</v>
+        <v>22.70000430378468</v>
       </c>
       <c r="L13">
-        <v>14.08430117189075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>9.568182405043625</v>
+      </c>
+      <c r="M13">
+        <v>13.97702165135514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.78683257093847</v>
+        <v>25.60104819722487</v>
       </c>
       <c r="C14">
-        <v>17.70211772042797</v>
+        <v>17.50597618684312</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.10629701920032</v>
+        <v>13.21937787577284</v>
       </c>
       <c r="F14">
-        <v>83.90648431668352</v>
+        <v>83.78856537660123</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.011565314418122</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.73422663558051</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>22.64492189079906</v>
+        <v>47.74481568723741</v>
       </c>
       <c r="K14">
-        <v>9.397620307383075</v>
+        <v>22.44812873593495</v>
       </c>
       <c r="L14">
-        <v>13.92340494546827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.459529589013336</v>
+      </c>
+      <c r="M14">
+        <v>13.81695144561794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.60779224327592</v>
+        <v>25.42351281551657</v>
       </c>
       <c r="C15">
-        <v>17.58007066456947</v>
+        <v>17.38493444278632</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.01821809589637</v>
+        <v>13.1319682535562</v>
       </c>
       <c r="F15">
-        <v>83.33751114568784</v>
+        <v>83.22211926277402</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.013774167382895</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.43209676716571</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>22.48942744534983</v>
+        <v>47.44472834603341</v>
       </c>
       <c r="K15">
-        <v>9.331036574482615</v>
+        <v>22.293758265954</v>
       </c>
       <c r="L15">
-        <v>13.82516916357036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.393447267220973</v>
+      </c>
+      <c r="M15">
+        <v>13.71920977574262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.57962225100694</v>
+        <v>24.40392716076218</v>
       </c>
       <c r="C16">
-        <v>16.87930657691285</v>
+        <v>16.68984683333729</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.5155952976814</v>
+        <v>12.63317572945833</v>
       </c>
       <c r="F16">
-        <v>80.0765697912869</v>
+        <v>79.97520186577614</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.026295192118215</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.70654779673535</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.59620689217725</v>
+        <v>45.73065764517697</v>
       </c>
       <c r="K16">
-        <v>8.95597859875617</v>
+        <v>21.40687816026022</v>
       </c>
       <c r="L16">
-        <v>13.26616356577678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>9.021126113721017</v>
+      </c>
+      <c r="M16">
+        <v>13.16287476067536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.94593522405248</v>
+        <v>23.77550019995885</v>
       </c>
       <c r="C17">
-        <v>16.4474756494053</v>
+        <v>16.26144197175524</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.20843147733762</v>
+        <v>12.32837353110129</v>
       </c>
       <c r="F17">
-        <v>78.07204277031674</v>
+        <v>77.97895049075686</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.033874086274879</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.65101794881501</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.04544008485135</v>
+        <v>44.68202040984306</v>
       </c>
       <c r="K17">
-        <v>8.730850837854504</v>
+        <v>20.85993428253872</v>
       </c>
       <c r="L17">
-        <v>12.92583886389247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>8.797574225594659</v>
+      </c>
+      <c r="M17">
+        <v>12.82406418507283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.58001219657915</v>
+        <v>23.41261096745415</v>
       </c>
       <c r="C18">
-        <v>16.19812677260436</v>
+        <v>16.0140497577322</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.03193748724354</v>
+        <v>12.15324809890483</v>
       </c>
       <c r="F18">
-        <v>76.91628048615435</v>
+        <v>76.82785582301193</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.038202835654434</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.04425048392582</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20.72730083792937</v>
+        <v>44.0791812559317</v>
       </c>
       <c r="K18">
-        <v>8.602882542709411</v>
+        <v>20.54397748440536</v>
       </c>
       <c r="L18">
-        <v>12.73072439595836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>8.670480904606002</v>
+      </c>
+      <c r="M18">
+        <v>12.62978162129463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.45583768511854</v>
+        <v>23.28946600197215</v>
       </c>
       <c r="C19">
-        <v>16.11351215051026</v>
+        <v>15.93009581095029</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.97218849841632</v>
+        <v>12.09396473525501</v>
       </c>
       <c r="F19">
-        <v>76.52436249525995</v>
+        <v>76.43750470365217</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.039663871704076</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.83880293333029</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>20.61932407644964</v>
+        <v>43.8750591199606</v>
       </c>
       <c r="K19">
-        <v>8.559789611343364</v>
+        <v>20.43673753620166</v>
       </c>
       <c r="L19">
-        <v>12.66474228876105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>8.627679360493429</v>
+      </c>
+      <c r="M19">
+        <v>12.56407503484888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.01353398918246</v>
+        <v>23.84253838231273</v>
       </c>
       <c r="C20">
-        <v>16.49353980966811</v>
+        <v>16.30714300227139</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.24110579247632</v>
+        <v>12.36079551229932</v>
       </c>
       <c r="F20">
-        <v>78.28569130166174</v>
+        <v>78.19172819648944</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.033070600810694</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.76332908096995</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.10420336247489</v>
+        <v>44.79360193453514</v>
       </c>
       <c r="K20">
-        <v>8.754652499148987</v>
+        <v>20.91829246864103</v>
       </c>
       <c r="L20">
-        <v>12.96199481949668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>8.821211516308486</v>
+      </c>
+      <c r="M20">
+        <v>12.86006312864867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.87266447593716</v>
+        <v>25.68615728037573</v>
       </c>
       <c r="C21">
-        <v>17.76062951018801</v>
+        <v>17.56400410641471</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.14858183031727</v>
+        <v>13.26134138830112</v>
       </c>
       <c r="F21">
-        <v>84.17937256764147</v>
+        <v>84.06023246369891</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.010503380854457</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.87924289150897</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>22.7194613843114</v>
+        <v>47.88884764631137</v>
       </c>
       <c r="K21">
-        <v>9.429677190990878</v>
+        <v>22.52212711276475</v>
       </c>
       <c r="L21">
-        <v>13.97059547714385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.491343317004256</v>
+      </c>
+      <c r="M21">
+        <v>13.86390187838203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.08336346736169</v>
+        <v>26.88654376422608</v>
       </c>
       <c r="C22">
-        <v>18.58616373748934</v>
+        <v>18.38256728154081</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.74928289959503</v>
+        <v>13.85746423742215</v>
       </c>
       <c r="F22">
-        <v>88.03739123719433</v>
+        <v>87.90029156744359</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.99531558607279</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49.93702338608282</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>23.77059018793748</v>
+        <v>49.93234782548672</v>
       </c>
       <c r="K22">
-        <v>9.891520959068487</v>
+        <v>23.56544929737113</v>
       </c>
       <c r="L22">
-        <v>14.64308535426334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>9.949550576435882</v>
+      </c>
+      <c r="M22">
+        <v>14.53276793008419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.437106771908</v>
+        <v>26.24582133823651</v>
       </c>
       <c r="C23">
-        <v>18.14545444844467</v>
+        <v>17.94561431540369</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.4276338999403</v>
+        <v>13.53827144426803</v>
       </c>
       <c r="F23">
-        <v>85.97594532139404</v>
+        <v>85.84860983498479</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.003471248718701</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.83573839708412</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>23.20957385244975</v>
+        <v>48.83878219886103</v>
       </c>
       <c r="K23">
-        <v>9.642723717636452</v>
+        <v>23.00864216927925</v>
       </c>
       <c r="L23">
-        <v>14.28250710001031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>9.702744065539662</v>
+      </c>
+      <c r="M23">
+        <v>14.17418070028838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.98297768099768</v>
+        <v>23.81223548086628</v>
       </c>
       <c r="C24">
-        <v>16.47271763877673</v>
+        <v>16.28648504133739</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.22633348726584</v>
+        <v>12.34613725216253</v>
       </c>
       <c r="F24">
-        <v>78.18911149287365</v>
+        <v>78.0955423622386</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.033433943543455</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.71255317872748</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.07764122013171</v>
+        <v>44.7431559904538</v>
       </c>
       <c r="K24">
-        <v>8.743887289471854</v>
+        <v>20.89191351425573</v>
       </c>
       <c r="L24">
-        <v>12.94564709810193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>8.810520713672073</v>
+      </c>
+      <c r="M24">
+        <v>12.8437865110281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.27809743381561</v>
+        <v>21.12991312499676</v>
       </c>
       <c r="C25">
-        <v>14.62939593574881</v>
+        <v>14.45734980905792</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.93572757666154</v>
+        <v>11.06584744863423</v>
       </c>
       <c r="F25">
-        <v>69.69658883884125</v>
+        <v>69.65737899468287</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.06464100641971</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.27345189041505</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>18.72397212998311</v>
+        <v>40.33250172074316</v>
       </c>
       <c r="K25">
-        <v>7.830445224829216</v>
+        <v>18.55406694902618</v>
       </c>
       <c r="L25">
-        <v>11.52557238427741</v>
+        <v>7.903039759246763</v>
+      </c>
+      <c r="M25">
+        <v>11.42922403189133</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.07437736887199</v>
+        <v>23.5806048480601</v>
       </c>
       <c r="C2">
-        <v>13.05375816225106</v>
+        <v>13.90562784935709</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.10660602053101</v>
+        <v>6.405971645423325</v>
       </c>
       <c r="F2">
-        <v>63.39010349048041</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.087301717084614</v>
+        <v>2.097041118701726</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>37.02720108883599</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.75747957453754</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.256373902498971</v>
+        <v>6.167771325594607</v>
       </c>
       <c r="M2">
-        <v>10.37726345063495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.75296908470047</v>
+      </c>
+      <c r="N2">
+        <v>13.50413147506767</v>
+      </c>
+      <c r="O2">
+        <v>26.06372580738912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.61988756759486</v>
+        <v>22.10748922240284</v>
       </c>
       <c r="C3">
-        <v>12.058591144697</v>
+        <v>12.97226397376487</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.438826789929177</v>
+        <v>6.397164843449938</v>
       </c>
       <c r="F3">
-        <v>58.98994242513722</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.102696264360512</v>
+        <v>2.107499323489911</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>34.73002306447908</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.48247460345547</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.822422262844718</v>
+        <v>6.093820649847395</v>
       </c>
       <c r="M3">
-        <v>9.64781921350286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.18447933706204</v>
+      </c>
+      <c r="N3">
+        <v>13.78563780806476</v>
+      </c>
+      <c r="O3">
+        <v>25.36736537719833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.69373735426129</v>
+        <v>21.17080308905217</v>
       </c>
       <c r="C4">
-        <v>11.42362348205357</v>
+        <v>12.3711197321345</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.018306337971561</v>
+        <v>6.392565241086949</v>
       </c>
       <c r="F4">
-        <v>56.20450226768578</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.112228453222136</v>
+        <v>2.114065361856632</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>33.28662256077995</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.66850269087764</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.555777076872279</v>
+        <v>6.051442638662484</v>
       </c>
       <c r="M4">
-        <v>9.189238519001574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.83348136956363</v>
+      </c>
+      <c r="N4">
+        <v>13.96157840746352</v>
+      </c>
+      <c r="O4">
+        <v>24.96177555981086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.30767209682376</v>
+        <v>20.78120865062452</v>
       </c>
       <c r="C5">
-        <v>11.15856093093715</v>
+        <v>12.11900499555994</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.844092649548971</v>
+        <v>6.390879014463752</v>
       </c>
       <c r="F5">
-        <v>55.04745307314298</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.116140834662007</v>
+        <v>2.116779924651296</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>32.68964455101452</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.32862235028459</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.446777660969852</v>
+        <v>6.034923770824404</v>
       </c>
       <c r="M5">
-        <v>8.999355958919422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.69012151803255</v>
+      </c>
+      <c r="N5">
+        <v>14.03409333246467</v>
+      </c>
+      <c r="O5">
+        <v>24.80195676384741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.24303535412743</v>
+        <v>20.71604810860263</v>
       </c>
       <c r="C6">
-        <v>11.11415866587446</v>
+        <v>12.07670776253112</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.814987372801767</v>
+        <v>6.390609971840536</v>
       </c>
       <c r="F6">
-        <v>54.85397859503407</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.116792380795565</v>
+        <v>2.117233090892484</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>32.58997503263986</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.27168182486711</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.428650219350601</v>
+        <v>6.0322258291593</v>
       </c>
       <c r="M6">
-        <v>8.9676361391402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.66630231984117</v>
+      </c>
+      <c r="N6">
+        <v>14.04618489911693</v>
+      </c>
+      <c r="O6">
+        <v>24.77574687412093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.68856616099046</v>
+        <v>21.16558048299093</v>
       </c>
       <c r="C7">
-        <v>11.42007465587809</v>
+        <v>12.36774865589195</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.015968604776438</v>
+        <v>6.392541756946403</v>
       </c>
       <c r="F7">
-        <v>56.18898780251192</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.112281094192799</v>
+        <v>2.11410181096706</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>33.27860759950993</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.66395250642988</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.554308798922015</v>
+        <v>6.051216835252229</v>
       </c>
       <c r="M7">
-        <v>9.186690255747818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.83154905201181</v>
+      </c>
+      <c r="N7">
+        <v>13.96255300688498</v>
+      </c>
+      <c r="O7">
+        <v>24.95959816028473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.57951480134176</v>
+        <v>23.07945348062448</v>
       </c>
       <c r="C8">
-        <v>12.71540503375059</v>
+        <v>13.58956871303227</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.878395362171107</v>
+        <v>6.402757889930326</v>
       </c>
       <c r="F8">
-        <v>61.88966662573907</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.092598240148296</v>
+        <v>2.100618634510881</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>36.24161065221074</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.32408627799943</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.106599631214223</v>
+        <v>6.141638148397341</v>
       </c>
       <c r="M8">
-        <v>10.12776458953412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.55744712160046</v>
+      </c>
+      <c r="N8">
+        <v>13.6005768181902</v>
+      </c>
+      <c r="O8">
+        <v>25.81902146251575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.0442103547477</v>
+        <v>26.63765038586269</v>
       </c>
       <c r="C9">
-        <v>15.08101540552231</v>
+        <v>15.76774507562101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.49850920632262</v>
+        <v>6.429967555353823</v>
       </c>
       <c r="F9">
-        <v>72.49758742698097</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.054214424136431</v>
+        <v>2.07520312735231</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>41.8237363163476</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.35164691678862</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.203950397208363</v>
+        <v>6.343482997236288</v>
       </c>
       <c r="M9">
-        <v>11.90576924897884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.95974301285096</v>
+      </c>
+      <c r="N9">
+        <v>12.91344263922347</v>
+      </c>
+      <c r="O9">
+        <v>27.68175022923164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.47546515462047</v>
+        <v>29.22281594328816</v>
       </c>
       <c r="C10">
-        <v>16.73861496567417</v>
+        <v>17.24310092277149</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.66799857302685</v>
+        <v>6.455564069079601</v>
       </c>
       <c r="F10">
-        <v>80.20268446076798</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.025425764742562</v>
+        <v>2.056964541339355</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>45.85040836183639</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.46912458317471</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>9.046857073954975</v>
+        <v>6.507496405355541</v>
       </c>
       <c r="M10">
-        <v>13.20163787019047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.97153324058437</v>
+      </c>
+      <c r="N10">
+        <v>12.41979519714487</v>
+      </c>
+      <c r="O10">
+        <v>29.16366096713502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.56710355533786</v>
+        <v>30.35529968108655</v>
       </c>
       <c r="C11">
-        <v>17.48283278222272</v>
+        <v>17.88921942174687</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.20265215932943</v>
+        <v>6.468755824571621</v>
       </c>
       <c r="F11">
-        <v>83.68023579766238</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>2.011988305204875</v>
+        <v>2.048712921596895</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>47.68740163534211</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.41861444443571</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>9.446865450728639</v>
+        <v>6.585721107635359</v>
       </c>
       <c r="M11">
-        <v>13.79824289414749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.5662330318109</v>
+      </c>
+      <c r="N11">
+        <v>12.19706773058133</v>
+      </c>
+      <c r="O11">
+        <v>29.86407868537306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.97957300331683</v>
+        <v>30.77816302122982</v>
       </c>
       <c r="C12">
-        <v>17.76406492375828</v>
+        <v>18.13048851181562</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.40631309093809</v>
+        <v>6.474006698639823</v>
       </c>
       <c r="F12">
-        <v>84.99740324846363</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>2.006827266049522</v>
+        <v>2.045590098949999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>48.38626210144422</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.7772112981304</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>9.601695683283065</v>
+        <v>6.615882019921822</v>
       </c>
       <c r="M12">
-        <v>14.02623615065079</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.79729739115948</v>
+      </c>
+      <c r="N12">
+        <v>12.11294356447493</v>
+      </c>
+      <c r="O12">
+        <v>30.13327619690886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.890759086804</v>
+        <v>30.68735308396092</v>
       </c>
       <c r="C13">
-        <v>17.7035071756466</v>
+        <v>18.07867477321176</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.3623820529529</v>
+        <v>6.472863887695993</v>
       </c>
       <c r="F13">
-        <v>84.71363371350907</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>2.007942456968337</v>
+        <v>2.046262650670013</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>48.2355587104611</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.70000430378468</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>9.568182405043625</v>
+        <v>6.609362012509802</v>
       </c>
       <c r="M13">
-        <v>13.97702165135514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.74768726454123</v>
+      </c>
+      <c r="N13">
+        <v>12.13105223652085</v>
+      </c>
+      <c r="O13">
+        <v>30.07511984688455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.60104819722487</v>
+        <v>30.3902070840217</v>
       </c>
       <c r="C14">
-        <v>17.50597618684312</v>
+        <v>17.90913573103565</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.21937787577284</v>
+        <v>6.469182490554484</v>
       </c>
       <c r="F14">
-        <v>83.78856537660123</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.011565314418122</v>
+        <v>2.048455995844057</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>47.74481568723741</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.44812873593495</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>9.459529589013336</v>
+        <v>6.58819153981301</v>
       </c>
       <c r="M14">
-        <v>13.81695144561794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.5853123832169</v>
+      </c>
+      <c r="N14">
+        <v>12.19014267694907</v>
+      </c>
+      <c r="O14">
+        <v>29.88614502060435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.42351281551657</v>
+        <v>30.20742627755768</v>
       </c>
       <c r="C15">
-        <v>17.38493444278632</v>
+        <v>17.80485144039759</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.1319682535562</v>
+        <v>6.46696185990105</v>
       </c>
       <c r="F15">
-        <v>83.22211926277402</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.013774167382895</v>
+        <v>2.049799581726839</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>47.44472834603341</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.293758265954</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>9.393447267220973</v>
+        <v>6.575294830908018</v>
       </c>
       <c r="M15">
-        <v>13.71920977574262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.48539971600117</v>
+      </c>
+      <c r="N15">
+        <v>12.22636430900582</v>
+      </c>
+      <c r="O15">
+        <v>29.77091517845391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.40392716076218</v>
+        <v>29.14795213314645</v>
       </c>
       <c r="C16">
-        <v>16.68984683333729</v>
+        <v>17.20038817793804</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.63317572945833</v>
+        <v>6.454735795849702</v>
       </c>
       <c r="F16">
-        <v>79.97520186577614</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.026295192118215</v>
+        <v>2.057504332540455</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>45.73065764517697</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.40687816026022</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>9.021126113721017</v>
+        <v>6.502458522178613</v>
       </c>
       <c r="M16">
-        <v>13.16287476067536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.94165716282055</v>
+      </c>
+      <c r="N16">
+        <v>12.43438393347711</v>
+      </c>
+      <c r="O16">
+        <v>29.11843056667423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.77550019995885</v>
+        <v>28.48703319695327</v>
       </c>
       <c r="C17">
-        <v>16.26144197175524</v>
+        <v>16.82329131489265</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.32837353110129</v>
+        <v>6.447653735827114</v>
       </c>
       <c r="F17">
-        <v>77.97895049075686</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.033874086274879</v>
+        <v>2.062239422358473</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.68202040984306</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.85993428253872</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.797574225594659</v>
+        <v>6.458714033629636</v>
       </c>
       <c r="M17">
-        <v>12.82406418507283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.67932106825353</v>
+      </c>
+      <c r="N17">
+        <v>12.56243425935162</v>
+      </c>
+      <c r="O17">
+        <v>28.72500046657914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.41261096745415</v>
+        <v>28.10277453402924</v>
       </c>
       <c r="C18">
-        <v>16.0140497577322</v>
+        <v>16.60402612346513</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.15324809890483</v>
+        <v>6.443723758137365</v>
       </c>
       <c r="F18">
-        <v>76.82785582301193</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.038202835654434</v>
+        <v>2.064967483913599</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.0791812559317</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.54397748440536</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.670480904606002</v>
+        <v>6.433892207590866</v>
       </c>
       <c r="M18">
-        <v>12.62978162129463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.52800457294582</v>
+      </c>
+      <c r="N18">
+        <v>12.63626089227564</v>
+      </c>
+      <c r="O18">
+        <v>28.50117049755532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.28946600197215</v>
+        <v>27.97195668147111</v>
       </c>
       <c r="C19">
-        <v>15.93009581095029</v>
+        <v>16.52937422674031</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.09396473525501</v>
+        <v>6.442416850848566</v>
       </c>
       <c r="F19">
-        <v>76.43750470365217</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>2.039663871704076</v>
+        <v>2.065892073653426</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>43.8750591199606</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.43673753620166</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.627679360493429</v>
+        <v>6.425545634085446</v>
       </c>
       <c r="M19">
-        <v>12.56407503484888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.4766986064527</v>
+      </c>
+      <c r="N19">
+        <v>12.66128887656482</v>
+      </c>
+      <c r="O19">
+        <v>28.42580336509288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.84253838231273</v>
+        <v>28.55781324958404</v>
       </c>
       <c r="C20">
-        <v>16.30714300227139</v>
+        <v>16.86367776288657</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.36079551229932</v>
+        <v>6.448392566290273</v>
       </c>
       <c r="F20">
-        <v>78.19172819648944</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.033070600810694</v>
+        <v>2.061734923269572</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>44.79360193453514</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.91829246864103</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.821211516308486</v>
+        <v>6.463335512311577</v>
       </c>
       <c r="M20">
-        <v>12.86006312864867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.70729159272757</v>
+      </c>
+      <c r="N20">
+        <v>12.54878525951355</v>
+      </c>
+      <c r="O20">
+        <v>28.76662594256956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.68615728037573</v>
+        <v>30.4776460403669</v>
       </c>
       <c r="C21">
-        <v>17.56400410641471</v>
+        <v>17.95902408185488</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.26134138830112</v>
+        <v>6.470256585236757</v>
       </c>
       <c r="F21">
-        <v>84.06023246369891</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>2.010503380854457</v>
+        <v>2.047811745735299</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>47.88884764631137</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.52212711276475</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>9.491343317004256</v>
+        <v>6.594395022857951</v>
       </c>
       <c r="M21">
-        <v>13.86390187838203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.63309996125263</v>
+      </c>
+      <c r="N21">
+        <v>12.1727808290725</v>
+      </c>
+      <c r="O21">
+        <v>29.94154217053693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.88654376422608</v>
+        <v>31.69765229222818</v>
       </c>
       <c r="C22">
-        <v>18.38256728154081</v>
+        <v>18.65517849422675</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.85746423742215</v>
+        <v>6.486054159512684</v>
       </c>
       <c r="F22">
-        <v>87.90029156744359</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>1.99531558607279</v>
+        <v>2.038720549983211</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>49.93234782548672</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.56544929737113</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.949550576435882</v>
+        <v>6.68320305986889</v>
       </c>
       <c r="M22">
-        <v>14.53276793008419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.29929682737952</v>
+      </c>
+      <c r="N22">
+        <v>11.92829011325332</v>
+      </c>
+      <c r="O22">
+        <v>30.73265367818758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.24582133823651</v>
+        <v>31.04958526214381</v>
       </c>
       <c r="C23">
-        <v>17.94561431540369</v>
+        <v>18.28535964702181</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.53827144426803</v>
+        <v>6.477472407587885</v>
       </c>
       <c r="F23">
-        <v>85.84860983498479</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.003471248718701</v>
+        <v>2.043573608590632</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>48.83878219886103</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.00864216927925</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>9.702744065539662</v>
+        <v>6.63550864444266</v>
       </c>
       <c r="M23">
-        <v>14.17418070028838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.94554233959503</v>
+      </c>
+      <c r="N23">
+        <v>12.05867983874629</v>
+      </c>
+      <c r="O23">
+        <v>30.30822067893379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.81223548086628</v>
+        <v>28.52582696274842</v>
       </c>
       <c r="C24">
-        <v>16.28648504133739</v>
+        <v>16.84542674900008</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.34613725216253</v>
+        <v>6.448058102414701</v>
       </c>
       <c r="F24">
-        <v>78.0955423622386</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>2.033433943543455</v>
+        <v>2.061962988915881</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>44.7431559904538</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.89191351425573</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.810520713672073</v>
+        <v>6.461245123221544</v>
       </c>
       <c r="M24">
-        <v>12.8437865110281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.69464766278718</v>
+      </c>
+      <c r="N24">
+        <v>12.55495531849801</v>
+      </c>
+      <c r="O24">
+        <v>28.74779973265021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.12991312499676</v>
+        <v>25.65559488966448</v>
       </c>
       <c r="C25">
-        <v>14.45734980905792</v>
+        <v>15.20106541265343</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.06584744863423</v>
+        <v>6.421721632033632</v>
       </c>
       <c r="F25">
-        <v>69.65737899468287</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>2.06464100641971</v>
+        <v>2.081987418137472</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>40.33250172074316</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.55406694902618</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.903039759246763</v>
+        <v>6.286177721775507</v>
       </c>
       <c r="M25">
-        <v>11.42922403189133</v>
+        <v>14.58334111604077</v>
+      </c>
+      <c r="N25">
+        <v>13.09717007058229</v>
+      </c>
+      <c r="O25">
+        <v>27.1583676498154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.5806048480601</v>
+        <v>11.9944005274603</v>
       </c>
       <c r="C2">
-        <v>13.90562784935709</v>
+        <v>7.990736499285276</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.405971645423325</v>
+        <v>5.42668810066273</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.097041118701726</v>
+        <v>2.183534002366454</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>40.11947883949574</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.09896038105463</v>
       </c>
       <c r="L2">
-        <v>6.167771325594607</v>
+        <v>6.877839775123006</v>
       </c>
       <c r="M2">
-        <v>13.75296908470047</v>
+        <v>10.12348600007586</v>
       </c>
       <c r="N2">
-        <v>13.50413147506767</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>26.06372580738912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.10748922240284</v>
+        <v>11.42035637780305</v>
       </c>
       <c r="C3">
-        <v>12.97226397376487</v>
+        <v>7.463749673370501</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.397164843449938</v>
+        <v>5.434148202226928</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.107499323489911</v>
+        <v>2.192720347091155</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>38.8766836881797</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.62091550532803</v>
       </c>
       <c r="L3">
-        <v>6.093820649847395</v>
+        <v>6.790614463014577</v>
       </c>
       <c r="M3">
-        <v>13.18447933706204</v>
+        <v>9.938104672689503</v>
       </c>
       <c r="N3">
-        <v>13.78563780806476</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>25.36736537719833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.17080308905217</v>
+        <v>11.06495518082003</v>
       </c>
       <c r="C4">
-        <v>12.3711197321345</v>
+        <v>7.136476810746707</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.392565241086949</v>
+        <v>5.440471782273241</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.114065361856632</v>
+        <v>2.198496533349608</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>38.1072490877504</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.32640761271062</v>
       </c>
       <c r="L4">
-        <v>6.051442638662484</v>
+        <v>6.739860666193391</v>
       </c>
       <c r="M4">
-        <v>12.83348136956363</v>
+        <v>9.829713981567194</v>
       </c>
       <c r="N4">
-        <v>13.96157840746352</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>24.96177555981086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.78120865062452</v>
+        <v>10.9195935529999</v>
       </c>
       <c r="C5">
-        <v>12.11900499555994</v>
+        <v>7.000070279759606</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.390879014463752</v>
+        <v>5.443479656669811</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.116779924651296</v>
+        <v>2.200886343964401</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>37.79230306290219</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.20630335944192</v>
       </c>
       <c r="L5">
-        <v>6.034923770824404</v>
+        <v>6.719878538442576</v>
       </c>
       <c r="M5">
-        <v>12.69012151803255</v>
+        <v>9.786923356366392</v>
       </c>
       <c r="N5">
-        <v>14.03409333246467</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.80195676384741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.71604810860263</v>
+        <v>10.89543083097615</v>
       </c>
       <c r="C6">
-        <v>12.07670776253112</v>
+        <v>6.977238244855684</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.390609971840536</v>
+        <v>5.444004932892704</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.117233090892484</v>
+        <v>2.201285393972128</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>37.73992865202533</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.18635975097561</v>
       </c>
       <c r="L6">
-        <v>6.0322258291593</v>
+        <v>6.716602688765681</v>
       </c>
       <c r="M6">
-        <v>12.66630231984117</v>
+        <v>9.779901666232274</v>
       </c>
       <c r="N6">
-        <v>14.04618489911693</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>24.77574687412093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.16558048299093</v>
+        <v>11.06299664456748</v>
       </c>
       <c r="C7">
-        <v>12.36774865589195</v>
+        <v>7.134649417299972</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.392541756946403</v>
+        <v>5.440510612003982</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.11410181096706</v>
+        <v>2.198528615197954</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>38.10300697861454</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.32478798385462</v>
       </c>
       <c r="L7">
-        <v>6.051216835252229</v>
+        <v>6.7395883502505</v>
       </c>
       <c r="M7">
-        <v>12.83154905201181</v>
+        <v>9.829131290914832</v>
       </c>
       <c r="N7">
-        <v>13.96255300688498</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>24.95959816028473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.07945348062448</v>
+        <v>11.79719235891566</v>
       </c>
       <c r="C8">
-        <v>13.58956871303227</v>
+        <v>7.802454933597001</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.402757889930326</v>
+        <v>5.428894045418295</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.100618634510881</v>
+        <v>2.186674428135378</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>39.69239476069261</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.93442316094034</v>
       </c>
       <c r="L8">
-        <v>6.141638148397341</v>
+        <v>6.84718022833809</v>
       </c>
       <c r="M8">
-        <v>13.55744712160046</v>
+        <v>10.05844680589361</v>
       </c>
       <c r="N8">
-        <v>13.6005768181902</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>25.81902146251575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.63765038586269</v>
+        <v>13.20639032858952</v>
       </c>
       <c r="C9">
-        <v>15.76774507562101</v>
+        <v>9.126035379330833</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.429967555353823</v>
+        <v>5.42029543684991</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.07520312735231</v>
+        <v>2.164415315513613</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>42.7514384715881</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.11636395657633</v>
       </c>
       <c r="L9">
-        <v>6.343482997236288</v>
+        <v>7.080606239696962</v>
       </c>
       <c r="M9">
-        <v>14.95974301285096</v>
+        <v>10.55067401087122</v>
       </c>
       <c r="N9">
-        <v>12.91344263922347</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>27.68175022923164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.22281594328816</v>
+        <v>14.21590362001217</v>
       </c>
       <c r="C10">
-        <v>17.24310092277149</v>
+        <v>10.02275264911903</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.455564069079601</v>
+        <v>5.423146021522342</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.056964541339355</v>
+        <v>2.148525644520412</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>44.95647693775401</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.03665172494243</v>
       </c>
       <c r="L10">
-        <v>6.507496405355541</v>
+        <v>7.266107615004288</v>
       </c>
       <c r="M10">
-        <v>15.97153324058437</v>
+        <v>10.93759996596913</v>
       </c>
       <c r="N10">
-        <v>12.41979519714487</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>29.16366096713502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.35529968108655</v>
+        <v>14.70585928873883</v>
       </c>
       <c r="C11">
-        <v>17.88921942174687</v>
+        <v>10.41459433041279</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.468755824571621</v>
+        <v>5.426559751576759</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.048712921596895</v>
+        <v>2.141363534614603</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>45.94964379930298</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.54861013355604</v>
       </c>
       <c r="L11">
-        <v>6.585721107635359</v>
+        <v>7.353630190785909</v>
       </c>
       <c r="M11">
-        <v>16.5662330318109</v>
+        <v>11.11904166192489</v>
       </c>
       <c r="N11">
-        <v>12.19706773058133</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>29.86407868537306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.77816302122982</v>
+        <v>14.91157787658888</v>
       </c>
       <c r="C12">
-        <v>18.13048851181562</v>
+        <v>10.56076439600715</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.474006698639823</v>
+        <v>5.428168370994611</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.045590098949999</v>
+        <v>2.138657755804413</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>46.32429548407064</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.73953128997754</v>
       </c>
       <c r="L12">
-        <v>6.615882019921822</v>
+        <v>7.3872335518072</v>
       </c>
       <c r="M12">
-        <v>16.79729739115948</v>
+        <v>11.18852971487554</v>
       </c>
       <c r="N12">
-        <v>12.11294356447493</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>30.13327619690886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.68735308396092</v>
+        <v>14.86739806343732</v>
       </c>
       <c r="C13">
-        <v>18.07867477321176</v>
+        <v>10.52938072184203</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.472863887695993</v>
+        <v>5.427807681341783</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.046262650670013</v>
+        <v>2.139240264995504</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>46.24367126102717</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.69854193733022</v>
       </c>
       <c r="L13">
-        <v>6.609362012509802</v>
+        <v>7.379975809138752</v>
       </c>
       <c r="M13">
-        <v>16.74768726454123</v>
+        <v>11.17352945422903</v>
       </c>
       <c r="N13">
-        <v>12.13105223652085</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>30.07511984688455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.3902070840217</v>
+        <v>14.72284053611481</v>
       </c>
       <c r="C14">
-        <v>17.90913573103565</v>
+        <v>10.42666354735386</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.469182490554484</v>
+        <v>5.426685692695776</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.048455995844057</v>
+        <v>2.14114082049533</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>45.98049537152288</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.56437562793112</v>
       </c>
       <c r="L14">
-        <v>6.58819153981301</v>
+        <v>7.356385467860818</v>
       </c>
       <c r="M14">
-        <v>16.5853123832169</v>
+        <v>11.12474282896596</v>
       </c>
       <c r="N14">
-        <v>12.19014267694907</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>29.88614502060435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.20742627755768</v>
+        <v>14.63392589082007</v>
       </c>
       <c r="C15">
-        <v>17.80485144039759</v>
+        <v>10.36346141431059</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.46696185990105</v>
+        <v>5.426039942535221</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.049799581726839</v>
+        <v>2.142305693807822</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>45.81910552476749</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.48181507124983</v>
       </c>
       <c r="L15">
-        <v>6.575294830908018</v>
+        <v>7.341995992156386</v>
       </c>
       <c r="M15">
-        <v>16.48539971600117</v>
+        <v>11.09496130757168</v>
       </c>
       <c r="N15">
-        <v>12.22636430900582</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>29.77091517845391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.14795213314645</v>
+        <v>14.18617833059227</v>
       </c>
       <c r="C16">
-        <v>17.20038817793804</v>
+        <v>9.996829660122485</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.454735795849702</v>
+        <v>5.422966484670257</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.057504332540455</v>
+        <v>2.148994774518106</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>44.89136945467024</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.00277471663611</v>
       </c>
       <c r="L16">
-        <v>6.502458522178613</v>
+        <v>7.26045167487405</v>
       </c>
       <c r="M16">
-        <v>15.94165716282055</v>
+        <v>10.92585133661816</v>
       </c>
       <c r="N16">
-        <v>12.43438393347711</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>29.11843056667423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.48703319695327</v>
+        <v>13.92495067701007</v>
       </c>
       <c r="C17">
-        <v>16.82329131489265</v>
+        <v>9.767862860047275</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.447653735827114</v>
+        <v>5.421631090046373</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.062239422358473</v>
+        <v>2.153113115521405</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>44.31967009910699</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.72388816963469</v>
       </c>
       <c r="L17">
-        <v>6.458714033629636</v>
+        <v>7.211236213208798</v>
       </c>
       <c r="M17">
-        <v>15.67932106825353</v>
+        <v>10.82349540219832</v>
       </c>
       <c r="N17">
-        <v>12.56243425935162</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>28.72500046657914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.10277453402924</v>
+        <v>13.77409617876956</v>
       </c>
       <c r="C18">
-        <v>16.60402612346513</v>
+        <v>9.634647155773649</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.443723758137365</v>
+        <v>5.421061522338499</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.064967483913599</v>
+        <v>2.155488313667391</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>43.98990844651818</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.59610847735309</v>
       </c>
       <c r="L18">
-        <v>6.433892207590866</v>
+        <v>7.18322336240216</v>
       </c>
       <c r="M18">
-        <v>15.52800457294582</v>
+        <v>10.7651334493445</v>
       </c>
       <c r="N18">
-        <v>12.63626089227564</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>28.50117049755532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.97195668147111</v>
+        <v>13.72291716272705</v>
       </c>
       <c r="C19">
-        <v>16.52937422674031</v>
+        <v>9.589278641794728</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.442416850848566</v>
+        <v>5.420902438016903</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.065892073653426</v>
+        <v>2.156293711424726</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>43.87809731354348</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.55278539228154</v>
       </c>
       <c r="L19">
-        <v>6.425545634085446</v>
+        <v>7.173789043739816</v>
       </c>
       <c r="M19">
-        <v>15.4766986064527</v>
+        <v>10.74546089530066</v>
       </c>
       <c r="N19">
-        <v>12.66128887656482</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>28.42580336509288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.55781324958404</v>
+        <v>13.95282153591574</v>
       </c>
       <c r="C20">
-        <v>16.86367776288657</v>
+        <v>9.792393392199575</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.448392566290273</v>
+        <v>5.421752619435689</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.061734923269572</v>
+        <v>2.152674066670115</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>44.38062551095213</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.74750896409943</v>
       </c>
       <c r="L20">
-        <v>6.463335512311577</v>
+        <v>7.216444735708438</v>
       </c>
       <c r="M20">
-        <v>15.70729159272757</v>
+        <v>10.83433855972534</v>
       </c>
       <c r="N20">
-        <v>12.54878525951355</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>28.76662594256956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.4776460403669</v>
+        <v>14.76537728419559</v>
       </c>
       <c r="C21">
-        <v>17.95902408185488</v>
+        <v>10.45689324997056</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.470256585236757</v>
+        <v>5.427006577321176</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.047811745735299</v>
+        <v>2.140582435654108</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>46.05783544206321</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.60386244001518</v>
       </c>
       <c r="L21">
-        <v>6.594395022857951</v>
+        <v>7.363301938002317</v>
       </c>
       <c r="M21">
-        <v>16.63309996125263</v>
+        <v>11.13905144023405</v>
       </c>
       <c r="N21">
-        <v>12.1727808290725</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>29.94154217053693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.69765229222818</v>
+        <v>15.35895141939714</v>
       </c>
       <c r="C22">
-        <v>18.65517849422675</v>
+        <v>10.87834409203252</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.486054159512684</v>
+        <v>5.432287852917466</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.038720549983211</v>
+        <v>2.132715183462125</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>47.14562841666175</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.15422859832723</v>
       </c>
       <c r="L22">
-        <v>6.68320305986889</v>
+        <v>7.461971984394689</v>
       </c>
       <c r="M22">
-        <v>17.29929682737952</v>
+        <v>11.34275095550133</v>
       </c>
       <c r="N22">
-        <v>11.92829011325332</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>30.73265367818758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.04958526214381</v>
+        <v>15.04363171347697</v>
       </c>
       <c r="C23">
-        <v>18.28535964702181</v>
+        <v>10.65454662400046</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.477472407587885</v>
+        <v>5.429296009316147</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.043573608590632</v>
+        <v>2.136911988175286</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>46.56581010205995</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.86200882282459</v>
       </c>
       <c r="L23">
-        <v>6.63550864444266</v>
+        <v>7.409059914481762</v>
       </c>
       <c r="M23">
-        <v>16.94554233959503</v>
+        <v>11.2336142980164</v>
       </c>
       <c r="N23">
-        <v>12.05867983874629</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>30.30822067893379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.52582696274842</v>
+        <v>13.94022320897783</v>
       </c>
       <c r="C24">
-        <v>16.84542674900008</v>
+        <v>9.781308066294493</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.448058102414701</v>
+        <v>5.421697059603081</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.061962988915881</v>
+        <v>2.152872537032432</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>44.35307094432279</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.73683127286946</v>
       </c>
       <c r="L24">
-        <v>6.461245123221544</v>
+        <v>7.214089085691169</v>
       </c>
       <c r="M24">
-        <v>15.69464766278718</v>
+        <v>10.8294348610237</v>
       </c>
       <c r="N24">
-        <v>12.55495531849801</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>28.74779973265021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.65559488966448</v>
+        <v>12.82930976869969</v>
       </c>
       <c r="C25">
-        <v>15.20106541265343</v>
+        <v>8.780938820907144</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.421721632033632</v>
+        <v>5.421051625754296</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.081987418137472</v>
+        <v>2.170344779174866</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>41.9309496915164</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.79876567234308</v>
       </c>
       <c r="L25">
-        <v>6.286177721775507</v>
+        <v>7.01502504638212</v>
       </c>
       <c r="M25">
-        <v>14.58334111604077</v>
+        <v>10.41303344726661</v>
       </c>
       <c r="N25">
-        <v>13.09717007058229</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>27.1583676498154</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.9944005274603</v>
+        <v>15.56215833890737</v>
       </c>
       <c r="C2">
-        <v>7.990736499285276</v>
+        <v>5.759714878160847</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.42668810066273</v>
+        <v>9.523874639057887</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.183534002366454</v>
+        <v>3.781123445088729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40.11947883949574</v>
+        <v>42.16219757563169</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.09896038105463</v>
+        <v>14.40248692811434</v>
       </c>
       <c r="L2">
-        <v>6.877839775123006</v>
+        <v>10.70372182804004</v>
       </c>
       <c r="M2">
-        <v>10.12348600007586</v>
+        <v>16.24281408149997</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.42035637780305</v>
+        <v>15.52568906538251</v>
       </c>
       <c r="C3">
-        <v>7.463749673370501</v>
+        <v>5.563896747641673</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.434148202226928</v>
+        <v>9.540716599497955</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.192720347091155</v>
+        <v>3.784237520269339</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>38.8766836881797</v>
+        <v>41.80304197212396</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.62091550532803</v>
+        <v>14.36456919071079</v>
       </c>
       <c r="L3">
-        <v>6.790614463014577</v>
+        <v>10.70974789075377</v>
       </c>
       <c r="M3">
-        <v>9.938104672689503</v>
+        <v>16.26228532637093</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.06495518082003</v>
+        <v>15.50825481619839</v>
       </c>
       <c r="C4">
-        <v>7.136476810746707</v>
+        <v>5.44140202283918</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.440471782273241</v>
+        <v>9.551935103544293</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.198496533349608</v>
+        <v>3.786247852858394</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.1072490877504</v>
+        <v>41.58268005752307</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.32640761271062</v>
+        <v>14.34519809636557</v>
       </c>
       <c r="L4">
-        <v>6.739860666193391</v>
+        <v>10.71486821830227</v>
       </c>
       <c r="M4">
-        <v>9.829713981567194</v>
+        <v>16.27732367590934</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.9195935529999</v>
+        <v>15.50240363487425</v>
       </c>
       <c r="C5">
-        <v>7.000070279759606</v>
+        <v>5.390995233037257</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.443479656669811</v>
+        <v>9.556727826232748</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.200886343964401</v>
+        <v>3.787091882266368</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.79230306290219</v>
+        <v>41.49296711216767</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.20630335944192</v>
+        <v>14.33829375560811</v>
       </c>
       <c r="L5">
-        <v>6.719878538442576</v>
+        <v>10.71731225387776</v>
       </c>
       <c r="M5">
-        <v>9.786923356366392</v>
+        <v>16.28422720587675</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.89543083097615</v>
+        <v>15.50150792031142</v>
       </c>
       <c r="C6">
-        <v>6.977238244855684</v>
+        <v>5.382598126988011</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.444004932892704</v>
+        <v>9.557537020571779</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.201285393972128</v>
+        <v>3.787233533357639</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.73992865202533</v>
+        <v>41.47807687938717</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.18635975097561</v>
+        <v>14.33720722020448</v>
       </c>
       <c r="L6">
-        <v>6.716602688765681</v>
+        <v>10.71773968159463</v>
       </c>
       <c r="M6">
-        <v>9.779901666232274</v>
+        <v>16.28542035456953</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.06299664456748</v>
+        <v>15.50817082239522</v>
       </c>
       <c r="C7">
-        <v>7.134649417299972</v>
+        <v>5.440724090180858</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.440510612003982</v>
+        <v>9.551998844092173</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.198528615197954</v>
+        <v>3.786259135191605</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>38.10300697861454</v>
+        <v>41.58146974815751</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.32478798385462</v>
+        <v>14.34510096807761</v>
       </c>
       <c r="L7">
-        <v>6.7395883502505</v>
+        <v>10.71489973171747</v>
       </c>
       <c r="M7">
-        <v>9.829131290914832</v>
+        <v>16.27741364034286</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.79719235891566</v>
+        <v>15.54855914345538</v>
       </c>
       <c r="C8">
-        <v>7.802454933597001</v>
+        <v>5.692711875996853</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.428894045418295</v>
+        <v>9.529499894260537</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.186674428135378</v>
+        <v>3.782176834813879</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>39.69239476069261</v>
+        <v>42.03835503001746</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.93442316094034</v>
+        <v>14.38860530518333</v>
       </c>
       <c r="L8">
-        <v>6.84718022833809</v>
+        <v>10.70550503904622</v>
       </c>
       <c r="M8">
-        <v>10.05844680589361</v>
+        <v>16.24888799084592</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.20639032858952</v>
+        <v>15.66673902899761</v>
       </c>
       <c r="C9">
-        <v>9.126035379330833</v>
+        <v>6.165753325344673</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.42029543684991</v>
+        <v>9.492322293766744</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.164415315513613</v>
+        <v>3.774947145068249</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>42.7514384715881</v>
+        <v>42.93354423590964</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.11636395657633</v>
+        <v>14.5046237418302</v>
       </c>
       <c r="L9">
-        <v>7.080606239696962</v>
+        <v>10.69833599262844</v>
       </c>
       <c r="M9">
-        <v>10.55067401087122</v>
+        <v>16.21740256726471</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.21590362001217</v>
+        <v>15.7767476919666</v>
       </c>
       <c r="C10">
-        <v>10.02275264911903</v>
+        <v>6.496661936300721</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.423146021522342</v>
+        <v>9.469213959903653</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.148525644520412</v>
+        <v>3.770102624536171</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>44.95647693775401</v>
+        <v>43.58801845744056</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.03665172494243</v>
+        <v>14.60808048073713</v>
       </c>
       <c r="L10">
-        <v>7.266107615004288</v>
+        <v>10.69990613939928</v>
       </c>
       <c r="M10">
-        <v>10.93759996596913</v>
+        <v>16.20915729182157</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.70585928873883</v>
+        <v>15.83167419810031</v>
       </c>
       <c r="C11">
-        <v>10.41459433041279</v>
+        <v>6.642920873384446</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.426559751576759</v>
+        <v>9.459609080022878</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.141363534614603</v>
+        <v>3.767998933080531</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>45.94964379930298</v>
+        <v>43.8844624398632</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.54861013355604</v>
+        <v>14.65897294384466</v>
       </c>
       <c r="L11">
-        <v>7.353630190785909</v>
+        <v>10.70209854502106</v>
       </c>
       <c r="M11">
-        <v>11.11904166192489</v>
+        <v>16.20863034939318</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.91157787658888</v>
+        <v>15.85316066814612</v>
       </c>
       <c r="C12">
-        <v>10.56076439600715</v>
+        <v>6.697643339235047</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.428168370994611</v>
+        <v>9.456101970119171</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.138657755804413</v>
+        <v>3.767216621089586</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>46.32429548407064</v>
+        <v>43.99648345183591</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.73953128997754</v>
+        <v>14.67878288630216</v>
       </c>
       <c r="L12">
-        <v>7.3872335518072</v>
+        <v>10.70314057864852</v>
       </c>
       <c r="M12">
-        <v>11.18852971487554</v>
+        <v>16.20889325740747</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.86739806343732</v>
+        <v>15.84850287291997</v>
       </c>
       <c r="C13">
-        <v>10.52938072184203</v>
+        <v>6.685888054567865</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.427807681341783</v>
+        <v>9.45685151147884</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.139240264995504</v>
+        <v>3.767384470863697</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>46.24367126102717</v>
+        <v>43.97236903787939</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.69854193733022</v>
+        <v>14.6744927402455</v>
       </c>
       <c r="L13">
-        <v>7.379975809138752</v>
+        <v>10.70290675010211</v>
       </c>
       <c r="M13">
-        <v>11.17352945422903</v>
+        <v>16.20881608849018</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.72284053611481</v>
+        <v>15.83342822587104</v>
       </c>
       <c r="C14">
-        <v>10.42666354735386</v>
+        <v>6.647436459361476</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.426685692695776</v>
+        <v>9.459317943922622</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.14114082049533</v>
+        <v>3.767934285486298</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>45.98049537152288</v>
+        <v>43.89368350004111</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.56437562793112</v>
+        <v>14.66059201142058</v>
       </c>
       <c r="L14">
-        <v>7.356385467860818</v>
+        <v>10.7021800331547</v>
       </c>
       <c r="M14">
-        <v>11.12474282896596</v>
+        <v>16.20864271816329</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.63392589082007</v>
+        <v>15.8242835645674</v>
       </c>
       <c r="C15">
-        <v>10.36346141431059</v>
+        <v>6.623796121200784</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.426039942535221</v>
+        <v>9.460845629235331</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.142305693807822</v>
+        <v>3.768272923935575</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>45.81910552476749</v>
+        <v>43.84545407949118</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.48181507124983</v>
+        <v>14.65214709671498</v>
       </c>
       <c r="L15">
-        <v>7.341995992156386</v>
+        <v>10.70176245952684</v>
       </c>
       <c r="M15">
-        <v>11.09496130757168</v>
+        <v>16.20859671066302</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.18617833059227</v>
+        <v>15.77325510558395</v>
       </c>
       <c r="C16">
-        <v>9.996829660122485</v>
+        <v>6.487013339605263</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.422966484670257</v>
+        <v>9.469859882123524</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.148994774518106</v>
+        <v>3.770242112843071</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>44.89136945467024</v>
+        <v>43.5686149582038</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.00277471663611</v>
+        <v>14.6048305412385</v>
       </c>
       <c r="L16">
-        <v>7.26045167487405</v>
+        <v>10.69979254341763</v>
       </c>
       <c r="M16">
-        <v>10.92585133661816</v>
+        <v>16.20925650920621</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.92495067701007</v>
+        <v>15.74319105833807</v>
       </c>
       <c r="C17">
-        <v>9.767862860047275</v>
+        <v>6.401971021347406</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.421631090046373</v>
+        <v>9.475621904717665</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.153113115521405</v>
+        <v>3.771475725397421</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.31967009910699</v>
+        <v>43.39841842657862</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.72388816963469</v>
+        <v>14.57677551674591</v>
       </c>
       <c r="L17">
-        <v>7.211236213208798</v>
+        <v>10.69896215334456</v>
       </c>
       <c r="M17">
-        <v>10.82349540219832</v>
+        <v>16.21048624824705</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.77409617876956</v>
+        <v>15.72635961671603</v>
       </c>
       <c r="C18">
-        <v>9.634647155773649</v>
+        <v>6.352657233921242</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.421061522338499</v>
+        <v>9.479021483636728</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.155488313667391</v>
+        <v>3.772194694128181</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.98990844651818</v>
+        <v>43.30040853978291</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.59610847735309</v>
+        <v>14.56100027204971</v>
       </c>
       <c r="L18">
-        <v>7.18322336240216</v>
+        <v>10.69862371392907</v>
       </c>
       <c r="M18">
-        <v>10.7651334493445</v>
+        <v>16.21149709080827</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.72291716272705</v>
+        <v>15.72074033058358</v>
       </c>
       <c r="C19">
-        <v>9.589278641794728</v>
+        <v>6.335893345609459</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.420902438016903</v>
+        <v>9.480187205311342</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.156293711424726</v>
+        <v>3.772439746341604</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.87809731354348</v>
+        <v>43.26720550542918</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.55278539228154</v>
+        <v>14.55572146129582</v>
       </c>
       <c r="L19">
-        <v>7.173789043739816</v>
+        <v>10.69853304931038</v>
       </c>
       <c r="M19">
-        <v>10.74546089530066</v>
+        <v>16.21189150707161</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.95282153591574</v>
+        <v>15.74634386288641</v>
       </c>
       <c r="C20">
-        <v>9.792393392199575</v>
+        <v>6.411065655041121</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.421752619435689</v>
+        <v>9.474999690301036</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.152674066670115</v>
+        <v>3.771343430150859</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.38062551095213</v>
+        <v>43.41654865895499</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.74750896409943</v>
+        <v>14.57972472105154</v>
       </c>
       <c r="L20">
-        <v>7.216444735708438</v>
+        <v>10.69903615036965</v>
       </c>
       <c r="M20">
-        <v>10.83433855972534</v>
+        <v>16.21032393389878</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.76537728419559</v>
+        <v>15.83783749738995</v>
       </c>
       <c r="C21">
-        <v>10.45689324997056</v>
+        <v>6.658748964231831</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.427006577321176</v>
+        <v>9.458589966661128</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.140582435654108</v>
+        <v>3.767772403899179</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>46.05783544206321</v>
+        <v>43.91680216440046</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.60386244001518</v>
+        <v>14.66466049430293</v>
       </c>
       <c r="L21">
-        <v>7.363301938002317</v>
+        <v>10.70238774518732</v>
       </c>
       <c r="M21">
-        <v>11.13905144023405</v>
+        <v>16.2086811007065</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.35895141939714</v>
+        <v>15.90163030873968</v>
       </c>
       <c r="C22">
-        <v>10.87834409203252</v>
+        <v>6.816743611331209</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.432287852917466</v>
+        <v>9.448623103656908</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.132715183462125</v>
+        <v>3.765521904230718</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>47.14562841666175</v>
+        <v>44.24234790539611</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.15422859832723</v>
+        <v>14.72330074548025</v>
       </c>
       <c r="L22">
-        <v>7.461971984394689</v>
+        <v>10.7058124353548</v>
       </c>
       <c r="M22">
-        <v>11.34275095550133</v>
+        <v>16.21030223269505</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.04363171347697</v>
+        <v>15.86722254088271</v>
       </c>
       <c r="C23">
-        <v>10.65454662400046</v>
+        <v>6.73278845819014</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.429296009316147</v>
+        <v>9.45387339808965</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.136911988175286</v>
+        <v>3.766715437552091</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>46.56581010205995</v>
+        <v>44.06874309342845</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.86200882282459</v>
+        <v>14.69172135823665</v>
       </c>
       <c r="L23">
-        <v>7.409059914481762</v>
+        <v>10.7038719477798</v>
       </c>
       <c r="M23">
-        <v>11.2336142980164</v>
+        <v>16.20919086429214</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.94022320897783</v>
+        <v>15.74491706845275</v>
       </c>
       <c r="C24">
-        <v>9.781308066294493</v>
+        <v>6.406955281347814</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.421697059603081</v>
+        <v>9.475280722686975</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.152872537032432</v>
+        <v>3.771403210459774</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.35307094432279</v>
+        <v>43.40835248035025</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.73683127286946</v>
+        <v>14.57839028228407</v>
       </c>
       <c r="L24">
-        <v>7.214089085691169</v>
+        <v>10.69900226341361</v>
       </c>
       <c r="M24">
-        <v>10.8294348610237</v>
+        <v>16.21039636967629</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.82930976869969</v>
+        <v>15.63064959237515</v>
       </c>
       <c r="C25">
-        <v>8.780938820907144</v>
+        <v>6.040456961671252</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.421051625754296</v>
+        <v>9.501639283045364</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.170344779174866</v>
+        <v>3.776820520717619</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>41.9309496915164</v>
+        <v>42.69173601903319</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.79876567234308</v>
+        <v>14.46999790313958</v>
       </c>
       <c r="L25">
-        <v>7.01502504638212</v>
+        <v>10.69907269479973</v>
       </c>
       <c r="M25">
-        <v>10.41303344726661</v>
+        <v>16.22330356202032</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.56215833890737</v>
+        <v>11.99440052746016</v>
       </c>
       <c r="C2">
-        <v>5.759714878160847</v>
+        <v>7.990736499285364</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.523874639057887</v>
+        <v>5.426688100662727</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.781123445088729</v>
+        <v>2.18353400236633</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>42.16219757563169</v>
+        <v>40.1194788394959</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.40248692811434</v>
+        <v>11.09896038105453</v>
       </c>
       <c r="L2">
-        <v>10.70372182804004</v>
+        <v>6.877839775123018</v>
       </c>
       <c r="M2">
-        <v>16.24281408149997</v>
+        <v>10.12348600007573</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.52568906538251</v>
+        <v>11.42035637780303</v>
       </c>
       <c r="C3">
-        <v>5.563896747641673</v>
+        <v>7.463749673370492</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.540716599497955</v>
+        <v>5.434148202226815</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.784237520269339</v>
+        <v>2.192720347091027</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>41.80304197212396</v>
+        <v>38.87668368817967</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.36456919071079</v>
+        <v>10.62091550532804</v>
       </c>
       <c r="L3">
-        <v>10.70974789075377</v>
+        <v>6.790614463014554</v>
       </c>
       <c r="M3">
-        <v>16.26228532637093</v>
+        <v>9.938104672689423</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.50825481619839</v>
+        <v>11.06495518081999</v>
       </c>
       <c r="C4">
-        <v>5.44140202283918</v>
+        <v>7.136476810746707</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.551935103544293</v>
+        <v>5.440471782273171</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.786247852858394</v>
+        <v>2.198496533349608</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>41.58268005752307</v>
+        <v>38.10724908775057</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.34519809636557</v>
+        <v>10.32640761271058</v>
       </c>
       <c r="L4">
-        <v>10.71486821830227</v>
+        <v>6.739860666193335</v>
       </c>
       <c r="M4">
-        <v>16.27732367590934</v>
+        <v>9.829713981567121</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.50240363487425</v>
+        <v>10.91959355299986</v>
       </c>
       <c r="C5">
-        <v>5.390995233037257</v>
+        <v>7.000070279759614</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.556727826232748</v>
+        <v>5.443479656669759</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.787091882266368</v>
+        <v>2.200886343964403</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>41.49296711216767</v>
+        <v>37.79230306290208</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.33829375560811</v>
+        <v>10.20630335944189</v>
       </c>
       <c r="L5">
-        <v>10.71731225387776</v>
+        <v>6.719878538442524</v>
       </c>
       <c r="M5">
-        <v>16.28422720587675</v>
+        <v>9.786923356366351</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.50150792031142</v>
+        <v>10.89543083097608</v>
       </c>
       <c r="C6">
-        <v>5.382598126988011</v>
+        <v>6.977238244855704</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.557537020571779</v>
+        <v>5.444004932892701</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.787233533357639</v>
+        <v>2.201285393971857</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>41.47807687938717</v>
+        <v>37.7399286520251</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.33720722020448</v>
+        <v>10.18635975097556</v>
       </c>
       <c r="L6">
-        <v>10.71773968159463</v>
+        <v>6.716602688765703</v>
       </c>
       <c r="M6">
-        <v>16.28542035456953</v>
+        <v>9.779901666232217</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.50817082239522</v>
+        <v>11.0629966445674</v>
       </c>
       <c r="C7">
-        <v>5.440724090180858</v>
+        <v>7.134649417300057</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.551998844092173</v>
+        <v>5.440510612004043</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.786259135191605</v>
+        <v>2.198528615197956</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>41.58146974815751</v>
+        <v>38.10300697861474</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.34510096807761</v>
+        <v>10.32478798385457</v>
       </c>
       <c r="L7">
-        <v>10.71489973171747</v>
+        <v>6.739588350250475</v>
       </c>
       <c r="M7">
-        <v>16.27741364034286</v>
+        <v>9.829131290914768</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.54855914345538</v>
+        <v>11.79719235891568</v>
       </c>
       <c r="C8">
-        <v>5.692711875996853</v>
+        <v>7.802454933597001</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.529499894260537</v>
+        <v>5.42889404541812</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.782176834813879</v>
+        <v>2.186674428135105</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>42.03835503001746</v>
+        <v>39.69239476069285</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.38860530518333</v>
+        <v>10.93442316094037</v>
       </c>
       <c r="L8">
-        <v>10.70550503904622</v>
+        <v>6.847180228338032</v>
       </c>
       <c r="M8">
-        <v>16.24888799084592</v>
+        <v>10.0584468058936</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.66673902899761</v>
+        <v>13.20639032858958</v>
       </c>
       <c r="C9">
-        <v>6.165753325344673</v>
+        <v>9.126035379330723</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.492322293766744</v>
+        <v>5.420295436849706</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.774947145068249</v>
+        <v>2.164415315513629</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>42.93354423590964</v>
+        <v>42.75143847158815</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.5046237418302</v>
+        <v>12.11636395657636</v>
       </c>
       <c r="L9">
-        <v>10.69833599262844</v>
+        <v>7.080606239696849</v>
       </c>
       <c r="M9">
-        <v>16.21740256726471</v>
+        <v>10.55067401087122</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.7767476919666</v>
+        <v>14.21590362001216</v>
       </c>
       <c r="C10">
-        <v>6.496661936300721</v>
+        <v>10.02275264911905</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.469213959903653</v>
+        <v>5.423146021522346</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.770102624536171</v>
+        <v>2.148525644519879</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>43.58801845744056</v>
+        <v>44.95647693775407</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.60808048073713</v>
+        <v>13.0366517249424</v>
       </c>
       <c r="L10">
-        <v>10.69990613939928</v>
+        <v>7.266107615004278</v>
       </c>
       <c r="M10">
-        <v>16.20915729182157</v>
+        <v>10.93759996596917</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.83167419810031</v>
+        <v>14.7058592887389</v>
       </c>
       <c r="C11">
-        <v>6.642920873384446</v>
+        <v>10.41459433041272</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.459609080022878</v>
+        <v>5.426559751576647</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.767998933080531</v>
+        <v>2.141363534614468</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.8844624398632</v>
+        <v>45.94964379930294</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.65897294384466</v>
+        <v>13.54861013355607</v>
       </c>
       <c r="L11">
-        <v>10.70209854502106</v>
+        <v>7.353630190785869</v>
       </c>
       <c r="M11">
-        <v>16.20863034939318</v>
+        <v>11.11904166192485</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.85316066814612</v>
+        <v>14.91157787658894</v>
       </c>
       <c r="C12">
-        <v>6.697643339235047</v>
+        <v>10.5607643960071</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.456101970119171</v>
+        <v>5.428168370994667</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.767216621089586</v>
+        <v>2.138657755804282</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.99648345183591</v>
+        <v>46.32429548407072</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.67878288630216</v>
+        <v>13.73953128997756</v>
       </c>
       <c r="L12">
-        <v>10.70314057864852</v>
+        <v>7.387233551807235</v>
       </c>
       <c r="M12">
-        <v>16.20889325740747</v>
+        <v>11.18852971487555</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.84850287291997</v>
+        <v>14.86739806343734</v>
       </c>
       <c r="C13">
-        <v>6.685888054567865</v>
+        <v>10.52938072184205</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.45685151147884</v>
+        <v>5.427807681341779</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.767384470863697</v>
+        <v>2.139240264994843</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.97236903787939</v>
+        <v>46.24367126102702</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.6744927402455</v>
+        <v>13.69854193733022</v>
       </c>
       <c r="L13">
-        <v>10.70290675010211</v>
+        <v>7.379975809138719</v>
       </c>
       <c r="M13">
-        <v>16.20881608849018</v>
+        <v>11.17352945422904</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83342822587104</v>
+        <v>14.72284053611484</v>
       </c>
       <c r="C14">
-        <v>6.647436459361476</v>
+        <v>10.42666354735391</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.459317943922622</v>
+        <v>5.426685692695621</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.767934285486298</v>
+        <v>2.141140820495584</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.89368350004111</v>
+        <v>45.98049537152329</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.66059201142058</v>
+        <v>13.56437562793112</v>
       </c>
       <c r="L14">
-        <v>10.7021800331547</v>
+        <v>7.356385467860817</v>
       </c>
       <c r="M14">
-        <v>16.20864271816329</v>
+        <v>11.12474282896591</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.8242835645674</v>
+        <v>14.63392589082009</v>
       </c>
       <c r="C15">
-        <v>6.623796121200784</v>
+        <v>10.36346141431055</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.460845629235331</v>
+        <v>5.426039942535119</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.768272923935575</v>
+        <v>2.142305693807822</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.84545407949118</v>
+        <v>45.8191055247677</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.65214709671498</v>
+        <v>13.48181507124979</v>
       </c>
       <c r="L15">
-        <v>10.70176245952684</v>
+        <v>7.341995992156399</v>
       </c>
       <c r="M15">
-        <v>16.20859671066302</v>
+        <v>11.09496130757165</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.77325510558395</v>
+        <v>14.18617833059229</v>
       </c>
       <c r="C16">
-        <v>6.487013339605263</v>
+        <v>9.996829660122565</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.469859882123524</v>
+        <v>5.422966484670417</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.770242112843071</v>
+        <v>2.148994774518498</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>43.5686149582038</v>
+        <v>44.89136945467028</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.6048305412385</v>
+        <v>13.00277471663617</v>
       </c>
       <c r="L16">
-        <v>10.69979254341763</v>
+        <v>7.260451674874115</v>
       </c>
       <c r="M16">
-        <v>16.20925650920621</v>
+        <v>10.92585133661817</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.74319105833807</v>
+        <v>13.92495067701008</v>
       </c>
       <c r="C17">
-        <v>6.401971021347406</v>
+        <v>9.767862860047064</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.475621904717665</v>
+        <v>5.42163109004622</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.771475725397421</v>
+        <v>2.153113115521276</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>43.39841842657862</v>
+        <v>44.31967009910669</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.57677551674591</v>
+        <v>12.72388816963469</v>
       </c>
       <c r="L17">
-        <v>10.69896215334456</v>
+        <v>7.211236213208755</v>
       </c>
       <c r="M17">
-        <v>16.21048624824705</v>
+        <v>10.82349540219833</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.72635961671603</v>
+        <v>13.77409617876948</v>
       </c>
       <c r="C18">
-        <v>6.352657233921242</v>
+        <v>9.634647155773758</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.479021483636728</v>
+        <v>5.421061522338602</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.772194694128181</v>
+        <v>2.155488313667526</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.30040853978291</v>
+        <v>43.98990844651841</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.56100027204971</v>
+        <v>12.59610847735304</v>
       </c>
       <c r="L18">
-        <v>10.69862371392907</v>
+        <v>7.183223362402237</v>
       </c>
       <c r="M18">
-        <v>16.21149709080827</v>
+        <v>10.76513344934446</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.72074033058358</v>
+        <v>13.72291716272706</v>
       </c>
       <c r="C19">
-        <v>6.335893345609459</v>
+        <v>9.589278641794603</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.480187205311342</v>
+        <v>5.42090243801707</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.772439746341604</v>
+        <v>2.156293711424463</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.26720550542918</v>
+        <v>43.87809731354341</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.55572146129582</v>
+        <v>12.55278539228151</v>
       </c>
       <c r="L19">
-        <v>10.69853304931038</v>
+        <v>7.173789043739852</v>
       </c>
       <c r="M19">
-        <v>16.21189150707161</v>
+        <v>10.74546089530066</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.74634386288641</v>
+        <v>13.95282153591572</v>
       </c>
       <c r="C20">
-        <v>6.411065655041121</v>
+        <v>9.792393392199479</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.474999690301036</v>
+        <v>5.421752619435638</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.771343430150859</v>
+        <v>2.152674066670378</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>43.41654865895499</v>
+        <v>44.38062551095225</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.57972472105154</v>
+        <v>12.7475089640994</v>
       </c>
       <c r="L20">
-        <v>10.69903615036965</v>
+        <v>7.216444735708424</v>
       </c>
       <c r="M20">
-        <v>16.21032393389878</v>
+        <v>10.83433855972533</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.83783749738995</v>
+        <v>14.76537728419565</v>
       </c>
       <c r="C21">
-        <v>6.658748964231831</v>
+        <v>10.45689324997045</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.458589966661128</v>
+        <v>5.42700657732123</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.767772403899179</v>
+        <v>2.140582435653844</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.91680216440046</v>
+        <v>46.05783544206316</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.66466049430293</v>
+        <v>13.6038624400152</v>
       </c>
       <c r="L21">
-        <v>10.70238774518732</v>
+        <v>7.363301938002436</v>
       </c>
       <c r="M21">
-        <v>16.2086811007065</v>
+        <v>11.13905144023407</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.90163030873968</v>
+        <v>15.35895141939714</v>
       </c>
       <c r="C22">
-        <v>6.816743611331209</v>
+        <v>10.87834409203237</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.448623103656908</v>
+        <v>5.43228785291738</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.765521904230718</v>
+        <v>2.132715183462526</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44.24234790539611</v>
+        <v>47.14562841666196</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.72330074548025</v>
+        <v>14.15422859832724</v>
       </c>
       <c r="L22">
-        <v>10.7058124353548</v>
+        <v>7.461971984394647</v>
       </c>
       <c r="M22">
-        <v>16.21030223269505</v>
+        <v>11.3427509555013</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.86722254088271</v>
+        <v>15.04363171347693</v>
       </c>
       <c r="C23">
-        <v>6.73278845819014</v>
+        <v>10.65454662400047</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.45387339808965</v>
+        <v>5.429296009316036</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.766715437552091</v>
+        <v>2.136911988175161</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.06874309342845</v>
+        <v>46.56581010206042</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.69172135823665</v>
+        <v>13.86200882282453</v>
       </c>
       <c r="L23">
-        <v>10.7038719477798</v>
+        <v>7.409059914481769</v>
       </c>
       <c r="M23">
-        <v>16.20919086429214</v>
+        <v>11.23361429801639</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.74491706845275</v>
+        <v>13.94022320897781</v>
       </c>
       <c r="C24">
-        <v>6.406955281347814</v>
+        <v>9.781308066294462</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.475280722686975</v>
+        <v>5.421697059602911</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.771403210459774</v>
+        <v>2.15287253703231</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>43.40835248035025</v>
+        <v>44.35307094432292</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.57839028228407</v>
+        <v>12.73683127286944</v>
       </c>
       <c r="L24">
-        <v>10.69900226341361</v>
+        <v>7.214089085691128</v>
       </c>
       <c r="M24">
-        <v>16.21039636967629</v>
+        <v>10.82943486102364</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.63064959237515</v>
+        <v>12.82930976869965</v>
       </c>
       <c r="C25">
-        <v>6.040456961671252</v>
+        <v>8.780938820907219</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.501639283045364</v>
+        <v>5.421051625754356</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.776820520717619</v>
+        <v>2.170344779175133</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>42.69173601903319</v>
+        <v>41.9309496915166</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.46999790313958</v>
+        <v>11.79876567234305</v>
       </c>
       <c r="L25">
-        <v>10.69907269479973</v>
+        <v>7.015025046382048</v>
       </c>
       <c r="M25">
-        <v>16.22330356202032</v>
+        <v>10.41303344726656</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.99440052746016</v>
+        <v>17.46855952493668</v>
       </c>
       <c r="C2">
-        <v>7.990736499285364</v>
+        <v>12.464299534882</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.426688100662727</v>
+        <v>9.100702125816202</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.18353400236633</v>
+        <v>18.68318509211573</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.844249517896603</v>
       </c>
       <c r="I2">
-        <v>40.1194788394959</v>
+        <v>2.523946791090664</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.029271947962508</v>
       </c>
       <c r="K2">
-        <v>11.09896038105453</v>
+        <v>13.08208567109878</v>
       </c>
       <c r="L2">
-        <v>6.877839775123018</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.12348600007573</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.815327561268286</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.34964117052027</v>
+      </c>
+      <c r="P2">
+        <v>12.75932244165403</v>
+      </c>
+      <c r="Q2">
+        <v>12.66477138374506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.42035637780303</v>
+        <v>16.3279142205134</v>
       </c>
       <c r="C3">
-        <v>7.463749673370492</v>
+        <v>12.08318549949022</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.434148202226815</v>
+        <v>9.053522489606415</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.192720347091027</v>
+        <v>18.294246595876</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.0009783101214</v>
       </c>
       <c r="I3">
-        <v>38.87668368817967</v>
+        <v>2.540839434118717</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.050807344641978</v>
       </c>
       <c r="K3">
-        <v>10.62091550532804</v>
+        <v>13.20319777222475</v>
       </c>
       <c r="L3">
-        <v>6.790614463014554</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.938104672689423</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.668384404567849</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.82871024315065</v>
+      </c>
+      <c r="P3">
+        <v>12.78312136169338</v>
+      </c>
+      <c r="Q3">
+        <v>12.6148624521731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.06495518081999</v>
+        <v>15.58214885769805</v>
       </c>
       <c r="C4">
-        <v>7.136476810746707</v>
+        <v>11.84350252070189</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.440471782273171</v>
+        <v>9.02365523618249</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.198496533349608</v>
+        <v>18.06156244258481</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.100825077645227</v>
       </c>
       <c r="I4">
-        <v>38.10724908775057</v>
+        <v>2.619717148060386</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.066701967974042</v>
       </c>
       <c r="K4">
-        <v>10.32640761271058</v>
+        <v>13.28136484445233</v>
       </c>
       <c r="L4">
-        <v>6.739860666193335</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.829713981567121</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.576771934689198</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.49539210474224</v>
+      </c>
+      <c r="P4">
+        <v>12.80046319689374</v>
+      </c>
+      <c r="Q4">
+        <v>12.58961064265722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.91959355299986</v>
+        <v>15.26201944570343</v>
       </c>
       <c r="C5">
-        <v>7.000070279759614</v>
+        <v>11.74953041107791</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.443479656669759</v>
+        <v>9.010350665167534</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.200886343964403</v>
+        <v>17.95754810611621</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.142712860265446</v>
       </c>
       <c r="I5">
-        <v>37.79230306290208</v>
+        <v>2.65589751425608</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.07224129658449</v>
       </c>
       <c r="K5">
-        <v>10.20630335944189</v>
+        <v>13.31064580670305</v>
       </c>
       <c r="L5">
-        <v>6.719878538442524</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.786923356366351</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.539611863079989</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.35510509740643</v>
+      </c>
+      <c r="P5">
+        <v>12.80924102492524</v>
+      </c>
+      <c r="Q5">
+        <v>12.57645442009716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.89543083097608</v>
+        <v>15.20233382081346</v>
       </c>
       <c r="C6">
-        <v>6.977238244855704</v>
+        <v>11.74004614412699</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.444004932892701</v>
+        <v>9.00702574798963</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.201285393971857</v>
+        <v>17.92714348936147</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.150066314406799</v>
       </c>
       <c r="I6">
-        <v>37.7399286520251</v>
+        <v>2.665936940576694</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.071250963228845</v>
       </c>
       <c r="K6">
-        <v>10.18635975097556</v>
+        <v>13.31127878891212</v>
       </c>
       <c r="L6">
-        <v>6.716602688765703</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.779901666232217</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.534024116055735</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.3301319868637</v>
+      </c>
+      <c r="P6">
+        <v>12.81201538500934</v>
+      </c>
+      <c r="Q6">
+        <v>12.56922195253644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.0629966445674</v>
+        <v>15.56232347404347</v>
       </c>
       <c r="C7">
-        <v>7.134649417300057</v>
+        <v>11.85906013233729</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.440510612004043</v>
+        <v>9.020502711696826</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.198528615197956</v>
+        <v>18.02425584910635</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.102302783841733</v>
       </c>
       <c r="I7">
-        <v>38.10300697861474</v>
+        <v>2.630710240362969</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.061457607661241</v>
       </c>
       <c r="K7">
-        <v>10.32478798385457</v>
+        <v>13.27005353999989</v>
       </c>
       <c r="L7">
-        <v>6.739588350250475</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.829131290914768</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.577908940690053</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.48951527034975</v>
+      </c>
+      <c r="P7">
+        <v>12.80413280433224</v>
+      </c>
+      <c r="Q7">
+        <v>12.57545639425971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.79719235891568</v>
+        <v>17.06568297696826</v>
       </c>
       <c r="C8">
-        <v>7.802454933597001</v>
+        <v>12.35584746317153</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.42889404541812</v>
+        <v>9.080833118319333</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.186674428135105</v>
+        <v>18.50161379477538</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.898679814017541</v>
       </c>
       <c r="I8">
-        <v>39.69239476069285</v>
+        <v>2.486889336683318</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.029134463979462</v>
       </c>
       <c r="K8">
-        <v>10.93442316094037</v>
+        <v>13.10757501585012</v>
       </c>
       <c r="L8">
-        <v>6.847180228338032</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.0584468058936</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.767113295470395</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.16789328300998</v>
+      </c>
+      <c r="P8">
+        <v>12.77194778539171</v>
+      </c>
+      <c r="Q8">
+        <v>12.62811105222245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.20639032858958</v>
+        <v>19.67987720976388</v>
       </c>
       <c r="C9">
-        <v>9.126035379330723</v>
+        <v>13.25309185399579</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.420295436849706</v>
+        <v>9.197305304327621</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.164415315513629</v>
+        <v>19.54440785675654</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.594193515008861</v>
       </c>
       <c r="I9">
-        <v>42.75143847158815</v>
+        <v>2.768956523075758</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.997126233299142</v>
       </c>
       <c r="K9">
-        <v>12.11636395657636</v>
+        <v>12.84106606654211</v>
       </c>
       <c r="L9">
-        <v>7.080606239696849</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.55067401087122</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.122910517380654</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.39271288182575</v>
+      </c>
+      <c r="P9">
+        <v>12.72426095241772</v>
+      </c>
+      <c r="Q9">
+        <v>12.80012173814816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.21590362001216</v>
+        <v>21.34068581594017</v>
       </c>
       <c r="C10">
-        <v>10.02275264911905</v>
+        <v>13.93570246862515</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.423146021522346</v>
+        <v>9.229128993823977</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.148525644519879</v>
+        <v>20.16095027832189</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.839027363879644</v>
       </c>
       <c r="I10">
-        <v>44.95647693775407</v>
+        <v>2.964031543039431</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.960391468770616</v>
       </c>
       <c r="K10">
-        <v>13.0366517249424</v>
+        <v>12.6099284561865</v>
       </c>
       <c r="L10">
-        <v>7.266107615004278</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.93759996596917</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.27897814235282</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.12495146835915</v>
+      </c>
+      <c r="P10">
+        <v>12.72768530466389</v>
+      </c>
+      <c r="Q10">
+        <v>12.88363156694195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.7058592887389</v>
+        <v>21.71246887196749</v>
       </c>
       <c r="C11">
-        <v>10.41459433041272</v>
+        <v>14.69146432897031</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.426559751576647</v>
+        <v>8.993489115891824</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.141363534614468</v>
+        <v>19.05342327378681</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.762859623587543</v>
       </c>
       <c r="I11">
-        <v>45.94964379930294</v>
+        <v>3.021633393982991</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.721709827294965</v>
       </c>
       <c r="K11">
-        <v>13.54861013355607</v>
+        <v>12.07149277741844</v>
       </c>
       <c r="L11">
-        <v>7.353630190785869</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.11904166192485</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.561786030219524</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.6465596589606</v>
+      </c>
+      <c r="P11">
+        <v>12.94617592059705</v>
+      </c>
+      <c r="Q11">
+        <v>12.34664182809341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.91157787658894</v>
+        <v>21.70628666558081</v>
       </c>
       <c r="C12">
-        <v>10.5607643960071</v>
+        <v>15.18250308573022</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.428168370994667</v>
+        <v>9.033433865397312</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.138657755804282</v>
+        <v>18.01770639669996</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.0685370933101</v>
       </c>
       <c r="I12">
-        <v>46.32429548407072</v>
+        <v>3.028304819507609</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.53384203688409</v>
       </c>
       <c r="K12">
-        <v>13.73953128997756</v>
+        <v>11.70164834727986</v>
       </c>
       <c r="L12">
-        <v>7.387233551807235</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.18852971487555</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.997621733770143</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.08782932579405</v>
+      </c>
+      <c r="P12">
+        <v>13.14099244386678</v>
+      </c>
+      <c r="Q12">
+        <v>11.88962380699905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.86739806343734</v>
+        <v>21.3913891900313</v>
       </c>
       <c r="C13">
-        <v>10.52938072184205</v>
+        <v>15.52858500788254</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.427807681341779</v>
+        <v>9.272588409159301</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.139240264994843</v>
+        <v>16.90476570137961</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.456217453771641</v>
       </c>
       <c r="I13">
-        <v>46.24367126102702</v>
+        <v>3.000455195466372</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.365723238750149</v>
       </c>
       <c r="K13">
-        <v>13.69854193733022</v>
+        <v>11.42538681747718</v>
       </c>
       <c r="L13">
-        <v>7.379975809138719</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.17352945422904</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.539163013909929</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.41450710655292</v>
+      </c>
+      <c r="P13">
+        <v>13.32979550815575</v>
+      </c>
+      <c r="Q13">
+        <v>11.44360623303867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.72284053611484</v>
+        <v>21.02314001921851</v>
       </c>
       <c r="C14">
-        <v>10.42666354735391</v>
+        <v>15.71399012869245</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.426685692695621</v>
+        <v>9.549830892838038</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.141140820495584</v>
+        <v>16.07663225904723</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.481544461074698</v>
       </c>
       <c r="I14">
-        <v>45.98049537152329</v>
+        <v>2.966592936113674</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.256765589948209</v>
       </c>
       <c r="K14">
-        <v>13.56437562793112</v>
+        <v>11.27865049128058</v>
       </c>
       <c r="L14">
-        <v>7.356385467860817</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.12474282896591</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.295967596837836</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.88297371465251</v>
+      </c>
+      <c r="P14">
+        <v>13.46077775857247</v>
+      </c>
+      <c r="Q14">
+        <v>11.13468848567696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.63392589082009</v>
+        <v>20.86106677875156</v>
       </c>
       <c r="C15">
-        <v>10.36346141431055</v>
+        <v>15.73332007657882</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.426039942535119</v>
+        <v>9.626340071557062</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>2.142305693807822</v>
+        <v>15.84859656785444</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.718339943782693</v>
       </c>
       <c r="I15">
-        <v>45.8191055247677</v>
+        <v>2.952025105920683</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.233264012752469</v>
       </c>
       <c r="K15">
-        <v>13.48181507124979</v>
+        <v>11.25833621656593</v>
       </c>
       <c r="L15">
-        <v>7.341995992156399</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.09496130757165</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.249404601547945</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.72726440851051</v>
+      </c>
+      <c r="P15">
+        <v>13.49074703346248</v>
+      </c>
+      <c r="Q15">
+        <v>11.05862489990111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.18617833059229</v>
+        <v>20.21526872750913</v>
       </c>
       <c r="C16">
-        <v>9.996829660122565</v>
+        <v>15.40102030876445</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.422966484670417</v>
+        <v>9.55031335906183</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>2.148994774518498</v>
+        <v>15.74559943830176</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.502457393580734</v>
       </c>
       <c r="I16">
-        <v>44.89136945467028</v>
+        <v>2.876060954154575</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.280223272175215</v>
       </c>
       <c r="K16">
-        <v>13.00277471663617</v>
+        <v>11.41289614573667</v>
       </c>
       <c r="L16">
-        <v>7.260451674874115</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.92585133661817</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.267180920932506</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.51657132570066</v>
+      </c>
+      <c r="P16">
+        <v>13.43943969069144</v>
+      </c>
+      <c r="Q16">
+        <v>11.10116466390389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.92495067701008</v>
+        <v>19.91420283728864</v>
       </c>
       <c r="C17">
-        <v>9.767862860047064</v>
+        <v>15.04023580278644</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.42163109004622</v>
+        <v>9.326958944127758</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.153113115521276</v>
+        <v>16.11744497381802</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.757670312253818</v>
       </c>
       <c r="I17">
-        <v>44.31967009910669</v>
+        <v>2.835966929573021</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.373766712479152</v>
       </c>
       <c r="K17">
-        <v>12.72388816963469</v>
+        <v>11.60490895804233</v>
       </c>
       <c r="L17">
-        <v>7.211236213208755</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.82349540219833</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.396375212652091</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.64683754880312</v>
+      </c>
+      <c r="P17">
+        <v>13.33181141047042</v>
+      </c>
+      <c r="Q17">
+        <v>11.2980408194237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.77409617876948</v>
+        <v>19.89724070825222</v>
       </c>
       <c r="C18">
-        <v>9.634647155773758</v>
+        <v>14.60798885570351</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.421061522338602</v>
+        <v>9.055400876509484</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.155488313667526</v>
+        <v>16.96008446955208</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.492345644931663</v>
       </c>
       <c r="I18">
-        <v>43.98990844651841</v>
+        <v>2.820083488325846</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.521789473569111</v>
       </c>
       <c r="K18">
-        <v>12.59610847735304</v>
+        <v>11.87081539115555</v>
       </c>
       <c r="L18">
-        <v>7.183223362402237</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.76513344934446</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.707393334383253</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.08979303100318</v>
+      </c>
+      <c r="P18">
+        <v>13.1656776381671</v>
+      </c>
+      <c r="Q18">
+        <v>11.65946093544819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.72291716272706</v>
+        <v>20.08780216118979</v>
       </c>
       <c r="C19">
-        <v>9.589278641794603</v>
+        <v>14.19669797634658</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.42090243801707</v>
+        <v>8.935151310241711</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.156293711424463</v>
+        <v>18.05376151338445</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.982780104855533</v>
       </c>
       <c r="I19">
-        <v>43.87809731354341</v>
+        <v>2.836221286286253</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.695616615093812</v>
       </c>
       <c r="K19">
-        <v>12.55278539228151</v>
+        <v>12.18163929971108</v>
       </c>
       <c r="L19">
-        <v>7.173789043739852</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.74546089530066</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.230267328326642</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.73881476715475</v>
+      </c>
+      <c r="P19">
+        <v>12.98435457419136</v>
+      </c>
+      <c r="Q19">
+        <v>12.10613941362829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.95282153591572</v>
+        <v>20.87962570237164</v>
       </c>
       <c r="C20">
-        <v>9.792393392199479</v>
+        <v>13.80916623966201</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.421752619435638</v>
+        <v>9.210691654851411</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.152674066670378</v>
+        <v>19.88999952558724</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.771560530847038</v>
       </c>
       <c r="I20">
-        <v>44.38062551095225</v>
+        <v>2.92385884080152</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.951733887666963</v>
       </c>
       <c r="K20">
-        <v>12.7475089640994</v>
+        <v>12.63094484894223</v>
       </c>
       <c r="L20">
-        <v>7.216444735708424</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.83433855972533</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.238798739608939</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.92275202738608</v>
+      </c>
+      <c r="P20">
+        <v>12.7398300265646</v>
+      </c>
+      <c r="Q20">
+        <v>12.81513169067526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.76537728419565</v>
+        <v>22.15502153475689</v>
       </c>
       <c r="C21">
-        <v>10.45689324997045</v>
+        <v>14.2355455164935</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.42700657732123</v>
+        <v>9.311322898549429</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.140582435653844</v>
+        <v>20.6343830475511</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.965812528725023</v>
       </c>
       <c r="I21">
-        <v>46.05783544206316</v>
+        <v>3.075036829873854</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.970677273098913</v>
       </c>
       <c r="K21">
-        <v>13.6038624400152</v>
+        <v>12.54561498732261</v>
       </c>
       <c r="L21">
-        <v>7.363301938002436</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.13905144023407</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.504721738460242</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.60573734892562</v>
+      </c>
+      <c r="P21">
+        <v>12.71122335433376</v>
+      </c>
+      <c r="Q21">
+        <v>12.99824984921634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.35895141939714</v>
+        <v>22.94452854189392</v>
       </c>
       <c r="C22">
-        <v>10.87834409203237</v>
+        <v>14.51352127159441</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.43228785291738</v>
+        <v>9.354916002987075</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.132715183462526</v>
+        <v>21.08281889108457</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.086793607398269</v>
       </c>
       <c r="I22">
-        <v>47.14562841666196</v>
+        <v>3.165924799494747</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.979943683727433</v>
       </c>
       <c r="K22">
-        <v>14.15422859832724</v>
+        <v>12.48395749860867</v>
       </c>
       <c r="L22">
-        <v>7.461971984394647</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.3427509555013</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.624642207210197</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.994032886119</v>
+      </c>
+      <c r="P22">
+        <v>12.70081962499344</v>
+      </c>
+      <c r="Q22">
+        <v>13.1074297254119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.04363171347693</v>
+        <v>22.53992664093237</v>
       </c>
       <c r="C23">
-        <v>10.65454662400047</v>
+        <v>14.34821810650532</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.429296009316036</v>
+        <v>9.334698303329562</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.136911988175161</v>
+        <v>20.87983291519728</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.023274726030575</v>
       </c>
       <c r="I23">
-        <v>46.56581010206042</v>
+        <v>3.113519161861793</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.980835372092423</v>
       </c>
       <c r="K23">
-        <v>13.86200882282453</v>
+        <v>12.53026092733442</v>
       </c>
       <c r="L23">
-        <v>7.409059914481769</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.23361429801639</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.559029475252685</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.79184772355269</v>
+      </c>
+      <c r="P23">
+        <v>12.70094614250129</v>
+      </c>
+      <c r="Q23">
+        <v>13.06419724110514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.94022320897781</v>
+        <v>20.9100340944111</v>
       </c>
       <c r="C24">
-        <v>9.781308066294462</v>
+        <v>13.73570483069085</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.421697059602911</v>
+        <v>9.252407642512237</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.15287253703231</v>
+        <v>20.06025005627605</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.776009182153586</v>
       </c>
       <c r="I24">
-        <v>44.35307094432292</v>
+        <v>2.917807763168037</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.980715190295556</v>
       </c>
       <c r="K24">
-        <v>12.73683127286944</v>
+        <v>12.6929265792043</v>
       </c>
       <c r="L24">
-        <v>7.214089085691128</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.82943486102364</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.30909822875405</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.99114634295378</v>
+      </c>
+      <c r="P24">
+        <v>12.71542537871452</v>
+      </c>
+      <c r="Q24">
+        <v>12.88781500278383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.82930976869965</v>
+        <v>18.9874295010149</v>
       </c>
       <c r="C25">
-        <v>8.780938820907219</v>
+        <v>13.04450507429414</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.421051625754356</v>
+        <v>9.161578115759706</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.170344779175133</v>
+        <v>19.19754058327924</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.625361423653105</v>
       </c>
       <c r="I25">
-        <v>41.9309496915166</v>
+        <v>2.699901401415</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.993842248337879</v>
       </c>
       <c r="K25">
-        <v>11.79876567234305</v>
+        <v>12.88857235117303</v>
       </c>
       <c r="L25">
-        <v>7.015025046382048</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.41303344726656</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.031034964033779</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.06767868076888</v>
+      </c>
+      <c r="P25">
+        <v>12.74198606599567</v>
+      </c>
+      <c r="Q25">
+        <v>12.72407543409115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.46855952493668</v>
+        <v>17.33343892471015</v>
       </c>
       <c r="C2">
-        <v>12.464299534882</v>
+        <v>12.39380618090473</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.100702125816202</v>
+        <v>8.997899929627788</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>18.68318509211573</v>
+        <v>17.49368667367672</v>
       </c>
       <c r="H2">
-        <v>1.844249517896603</v>
+        <v>1.808491593455032</v>
       </c>
       <c r="I2">
-        <v>2.523946791090664</v>
+        <v>2.575531402952776</v>
       </c>
       <c r="J2">
-        <v>8.029271947962508</v>
+        <v>8.509911894296367</v>
       </c>
       <c r="K2">
-        <v>13.08208567109878</v>
+        <v>12.80808604541548</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.18102515702904</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.746020420198049</v>
       </c>
       <c r="N2">
-        <v>6.815327561268286</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.34964117052027</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.75932244165403</v>
+        <v>6.885792533849915</v>
       </c>
       <c r="Q2">
-        <v>12.66477138374506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.29816657936797</v>
+      </c>
+      <c r="R2">
+        <v>12.76037761601239</v>
+      </c>
+      <c r="S2">
+        <v>12.46728062169643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.3279142205134</v>
+        <v>16.23243293158612</v>
       </c>
       <c r="C3">
-        <v>12.08318549949022</v>
+        <v>11.94805922733592</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.053522489606415</v>
+        <v>8.961344506996049</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>18.294246595876</v>
+        <v>17.16262825456614</v>
       </c>
       <c r="H3">
-        <v>2.0009783101214</v>
+        <v>1.954970488728886</v>
       </c>
       <c r="I3">
-        <v>2.540839434118717</v>
+        <v>2.479763644802093</v>
       </c>
       <c r="J3">
-        <v>8.050807344641978</v>
+        <v>8.513069402930846</v>
       </c>
       <c r="K3">
-        <v>13.20319777222475</v>
+        <v>12.93963875102437</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.34577109903146</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.810664004843199</v>
       </c>
       <c r="N3">
-        <v>6.668384404567849</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.82871024315065</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.78312136169338</v>
+        <v>6.741630283792274</v>
       </c>
       <c r="Q3">
-        <v>12.6148624521731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.78394341407478</v>
+      </c>
+      <c r="R3">
+        <v>12.76314927252583</v>
+      </c>
+      <c r="S3">
+        <v>12.43879448349488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.58214885769805</v>
+        <v>15.51254934533046</v>
       </c>
       <c r="C4">
-        <v>11.84350252070189</v>
+        <v>11.66767624722006</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.02365523618249</v>
+        <v>8.938142981240404</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>18.06156244258481</v>
+        <v>16.96637953290833</v>
       </c>
       <c r="H4">
-        <v>2.100825077645227</v>
+        <v>2.04831940672795</v>
       </c>
       <c r="I4">
-        <v>2.619717148060386</v>
+        <v>2.550501889475582</v>
       </c>
       <c r="J4">
-        <v>8.066701967974042</v>
+        <v>8.516044760463556</v>
       </c>
       <c r="K4">
-        <v>13.28136484445233</v>
+        <v>13.02321012054397</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.45094647731082</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.868616394226473</v>
       </c>
       <c r="N4">
-        <v>6.576771934689198</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.49539210474224</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.80046319689374</v>
+        <v>6.652047991226796</v>
       </c>
       <c r="Q4">
-        <v>12.58961064265722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.45465053756251</v>
+      </c>
+      <c r="R4">
+        <v>12.76792182369065</v>
+      </c>
+      <c r="S4">
+        <v>12.42556200831707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.26201944570343</v>
+        <v>15.20336951109876</v>
       </c>
       <c r="C5">
-        <v>11.74953041107791</v>
+        <v>11.55721893537739</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.010350665167534</v>
+        <v>8.927613345406293</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>17.95754810611621</v>
+        <v>16.87706437835544</v>
       </c>
       <c r="H5">
-        <v>2.142712860265446</v>
+        <v>2.087501640722152</v>
       </c>
       <c r="I5">
-        <v>2.65589751425608</v>
+        <v>2.58388714823307</v>
       </c>
       <c r="J5">
-        <v>8.07224129658449</v>
+        <v>8.51593125578294</v>
       </c>
       <c r="K5">
-        <v>13.31064580670305</v>
+        <v>13.0545151640526</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.4912978735431</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.895192354464731</v>
       </c>
       <c r="N5">
-        <v>6.539611863079989</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.35510509740643</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.80924102492524</v>
+        <v>6.615798993466132</v>
       </c>
       <c r="Q5">
-        <v>12.57645442009716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.31596916327219</v>
+      </c>
+      <c r="R5">
+        <v>12.77171199481256</v>
+      </c>
+      <c r="S5">
+        <v>12.41702807584914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20233382081346</v>
+        <v>15.14553309319477</v>
       </c>
       <c r="C6">
-        <v>11.74004614412699</v>
+        <v>11.54537246749459</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.00702574798963</v>
+        <v>8.924779615507598</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>17.92714348936147</v>
+        <v>16.84872102273364</v>
       </c>
       <c r="H6">
-        <v>2.150066314406799</v>
+        <v>2.094396302318017</v>
       </c>
       <c r="I6">
-        <v>2.665936940576694</v>
+        <v>2.594167152684294</v>
       </c>
       <c r="J6">
-        <v>8.071250963228845</v>
+        <v>8.513992764113445</v>
       </c>
       <c r="K6">
-        <v>13.31127878891212</v>
+        <v>13.05555183754569</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.49376893722359</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.897976444448017</v>
       </c>
       <c r="N6">
-        <v>6.534024116055735</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.3301319868637</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.81201538500934</v>
+        <v>6.610368799178425</v>
       </c>
       <c r="Q6">
-        <v>12.56922195253644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.29125452370048</v>
+      </c>
+      <c r="R6">
+        <v>12.77372205399787</v>
+      </c>
+      <c r="S6">
+        <v>12.41055977318986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.56232347404347</v>
+        <v>15.48717928013546</v>
       </c>
       <c r="C7">
-        <v>11.85906013233729</v>
+        <v>11.67739537633947</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.020502711696826</v>
+        <v>8.935292261804502</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>18.02425584910635</v>
+        <v>17.01348065442145</v>
       </c>
       <c r="H7">
-        <v>2.102302783841733</v>
+        <v>2.050216259670155</v>
       </c>
       <c r="I7">
-        <v>2.630710240362969</v>
+        <v>2.563801805324522</v>
       </c>
       <c r="J7">
-        <v>8.061457607661241</v>
+        <v>8.477769770048587</v>
       </c>
       <c r="K7">
-        <v>13.27005353999989</v>
+        <v>13.00808368725547</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.43598778864272</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.861378534977955</v>
       </c>
       <c r="N7">
-        <v>6.577908940690053</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.48951527034975</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.80413280433224</v>
+        <v>6.652793344504966</v>
       </c>
       <c r="Q7">
-        <v>12.57545639425971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.44647803292139</v>
+      </c>
+      <c r="R7">
+        <v>12.77317070008938</v>
+      </c>
+      <c r="S7">
+        <v>12.40239509886228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.06568297696826</v>
+        <v>16.92644346381952</v>
       </c>
       <c r="C8">
-        <v>12.35584746317153</v>
+        <v>12.24328795024525</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.080833118319333</v>
+        <v>8.982515452106004</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>18.50161379477538</v>
+        <v>17.60810300880562</v>
       </c>
       <c r="H8">
-        <v>1.898679814017541</v>
+        <v>1.860866578535831</v>
       </c>
       <c r="I8">
-        <v>2.486889336683318</v>
+        <v>2.542367884831547</v>
       </c>
       <c r="J8">
-        <v>8.029134463979462</v>
+        <v>8.396497116341438</v>
       </c>
       <c r="K8">
-        <v>13.10757501585012</v>
+        <v>12.82445359804741</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.21138145673271</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.746855603554724</v>
       </c>
       <c r="N8">
-        <v>6.767113295470395</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.16789328300998</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.77194778539171</v>
+        <v>6.837204678197205</v>
       </c>
       <c r="Q8">
-        <v>12.62811105222245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.1114977489518</v>
+      </c>
+      <c r="R8">
+        <v>12.77118383905578</v>
+      </c>
+      <c r="S8">
+        <v>12.40832288866663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.67987720976388</v>
+        <v>19.4477440966342</v>
       </c>
       <c r="C9">
-        <v>13.25309185399579</v>
+        <v>13.28925709529575</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.197305304327621</v>
+        <v>9.073529505765345</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>19.54440785675654</v>
+        <v>18.57393529794955</v>
       </c>
       <c r="H9">
-        <v>1.594193515008861</v>
+        <v>1.606949555044777</v>
       </c>
       <c r="I9">
-        <v>2.768956523075758</v>
+        <v>2.794526780084703</v>
       </c>
       <c r="J9">
-        <v>7.997126233299142</v>
+        <v>8.371615166039348</v>
       </c>
       <c r="K9">
-        <v>12.84106606654211</v>
+        <v>12.5220465082396</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.83538509404512</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.690426954315943</v>
       </c>
       <c r="N9">
-        <v>7.122910517380654</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.39271288182575</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.72426095241772</v>
+        <v>7.18755585148728</v>
       </c>
       <c r="Q9">
-        <v>12.80012173814816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.31812123910267</v>
+      </c>
+      <c r="R9">
+        <v>12.77960687018937</v>
+      </c>
+      <c r="S9">
+        <v>12.51291677112546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.34068581594017</v>
+        <v>21.02667419546236</v>
       </c>
       <c r="C10">
-        <v>13.93570246862515</v>
+        <v>14.0368225413458</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.229128993823977</v>
+        <v>9.092720213951328</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>20.16095027832189</v>
+        <v>19.59830520418712</v>
       </c>
       <c r="H10">
-        <v>1.839027363879644</v>
+        <v>1.833254855994025</v>
       </c>
       <c r="I10">
-        <v>2.964031543039431</v>
+        <v>2.968171349908944</v>
       </c>
       <c r="J10">
-        <v>7.960391468770616</v>
+        <v>8.158155497042921</v>
       </c>
       <c r="K10">
-        <v>12.6099284561865</v>
+        <v>12.24382453395696</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.53153061997869</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.676849473638518</v>
       </c>
       <c r="N10">
-        <v>7.27897814235282</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.12495146835915</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.72768530466389</v>
+        <v>7.338183874838947</v>
       </c>
       <c r="Q10">
-        <v>12.88363156694195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.02736673570357</v>
+      </c>
+      <c r="R10">
+        <v>12.83603989280411</v>
+      </c>
+      <c r="S10">
+        <v>12.49713440232935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.71246887196749</v>
+        <v>21.36049871653073</v>
       </c>
       <c r="C11">
-        <v>14.69146432897031</v>
+        <v>14.72647329317629</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.993489115891824</v>
+        <v>8.87828469906737</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>19.05342327378681</v>
+        <v>19.52869504975678</v>
       </c>
       <c r="H11">
-        <v>2.762859623587543</v>
+        <v>2.753643831310125</v>
       </c>
       <c r="I11">
-        <v>3.021633393982991</v>
+        <v>3.018622557625581</v>
       </c>
       <c r="J11">
-        <v>7.721709827294965</v>
+        <v>7.638701019337955</v>
       </c>
       <c r="K11">
-        <v>12.07149277741844</v>
+        <v>11.72084867995785</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.15375676221737</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.302156188019753</v>
       </c>
       <c r="N11">
-        <v>6.561786030219524</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>12.6465596589606</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.94617592059705</v>
+        <v>6.607148370936709</v>
       </c>
       <c r="Q11">
-        <v>12.34664182809341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.53222653549298</v>
+      </c>
+      <c r="R11">
+        <v>13.09563381378893</v>
+      </c>
+      <c r="S11">
+        <v>11.8877874027974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.70628666558081</v>
+        <v>21.35442973733233</v>
       </c>
       <c r="C12">
-        <v>15.18250308573022</v>
+        <v>15.16160919777334</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.033433865397312</v>
+        <v>8.929309030885713</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>18.01770639669996</v>
+        <v>19.00761184175239</v>
       </c>
       <c r="H12">
-        <v>4.0685370933101</v>
+        <v>4.061442328948677</v>
       </c>
       <c r="I12">
-        <v>3.028304819507609</v>
+        <v>3.022838262700406</v>
       </c>
       <c r="J12">
-        <v>7.53384203688409</v>
+        <v>7.389234336212825</v>
       </c>
       <c r="K12">
-        <v>11.70164834727986</v>
+        <v>11.3917452990079</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.946378507966303</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.016942860919713</v>
       </c>
       <c r="N12">
-        <v>5.997621733770143</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.08782932579405</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>13.14099244386678</v>
+        <v>6.033041849078715</v>
       </c>
       <c r="Q12">
-        <v>11.88962380699905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.97121355367673</v>
+      </c>
+      <c r="R12">
+        <v>13.30586946120342</v>
+      </c>
+      <c r="S12">
+        <v>11.42597764855913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.3913891900313</v>
+        <v>21.08003611186986</v>
       </c>
       <c r="C13">
-        <v>15.52858500788254</v>
+        <v>15.47535444422676</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.272588409159301</v>
+        <v>9.179396074832367</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>16.90476570137961</v>
+        <v>17.83578081105425</v>
       </c>
       <c r="H13">
-        <v>5.456217453771641</v>
+        <v>5.459755837676773</v>
       </c>
       <c r="I13">
-        <v>3.000455195466372</v>
+        <v>2.998349248271544</v>
       </c>
       <c r="J13">
-        <v>7.365723238750149</v>
+        <v>7.32361287928651</v>
       </c>
       <c r="K13">
-        <v>11.42538681747718</v>
+        <v>11.17889618491069</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.828785322630983</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.786467489286002</v>
       </c>
       <c r="N13">
-        <v>5.539163013909929</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.41450710655292</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>13.32979550815575</v>
+        <v>5.568298906365966</v>
       </c>
       <c r="Q13">
-        <v>11.44360623303867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.31102059383813</v>
+      </c>
+      <c r="R13">
+        <v>13.48348641466123</v>
+      </c>
+      <c r="S13">
+        <v>11.04603534005888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.02314001921851</v>
+        <v>20.75859094465719</v>
       </c>
       <c r="C14">
-        <v>15.71399012869245</v>
+        <v>15.64896415112813</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.549830892838038</v>
+        <v>9.466584853037814</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>16.07663225904723</v>
+        <v>16.71470563253992</v>
       </c>
       <c r="H14">
-        <v>6.481544461074698</v>
+        <v>6.483588821686685</v>
       </c>
       <c r="I14">
-        <v>2.966592936113674</v>
+        <v>2.969772248389609</v>
       </c>
       <c r="J14">
-        <v>7.256765589948209</v>
+        <v>7.343219173244699</v>
       </c>
       <c r="K14">
-        <v>11.27865049128058</v>
+        <v>11.08089639169117</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.779718014893808</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.65591134347701</v>
       </c>
       <c r="N14">
-        <v>5.295967596837836</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>10.88297371465251</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.46077775857247</v>
+        <v>5.322675372535585</v>
       </c>
       <c r="Q14">
-        <v>11.13468848567696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.79535234257822</v>
+      </c>
+      <c r="R14">
+        <v>13.5937670692586</v>
+      </c>
+      <c r="S14">
+        <v>10.8117574148489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.86106677875156</v>
+        <v>20.61594125999261</v>
       </c>
       <c r="C15">
-        <v>15.73332007657882</v>
+        <v>15.67054057716163</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.626340071557062</v>
+        <v>9.547455401198182</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>15.84859656785444</v>
+        <v>16.30919624100785</v>
       </c>
       <c r="H15">
-        <v>6.718339943782693</v>
+        <v>6.719841573522698</v>
       </c>
       <c r="I15">
-        <v>2.952025105920683</v>
+        <v>2.958256952568289</v>
       </c>
       <c r="J15">
-        <v>7.233264012752469</v>
+        <v>7.376310225426931</v>
       </c>
       <c r="K15">
-        <v>11.25833621656593</v>
+        <v>11.0746110860047</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.778502625647102</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.634165910580027</v>
       </c>
       <c r="N15">
-        <v>5.249404601547945</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>10.72726440851051</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.49074703346248</v>
+        <v>5.276384808278102</v>
       </c>
       <c r="Q15">
-        <v>11.05862489990111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.64633009094091</v>
+      </c>
+      <c r="R15">
+        <v>13.61346720782416</v>
+      </c>
+      <c r="S15">
+        <v>10.76571231785566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.21526872750913</v>
+        <v>20.03786590440244</v>
       </c>
       <c r="C16">
-        <v>15.40102030876445</v>
+        <v>15.37694274971058</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.55031335906183</v>
+        <v>9.487570630584594</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>15.74559943830176</v>
+        <v>15.34859051064258</v>
       </c>
       <c r="H16">
-        <v>6.502457393580734</v>
+        <v>6.501548370693949</v>
       </c>
       <c r="I16">
-        <v>2.876060954154575</v>
+        <v>2.894614507714422</v>
       </c>
       <c r="J16">
-        <v>7.280223272175215</v>
+        <v>7.654204623228821</v>
       </c>
       <c r="K16">
-        <v>11.41289614573667</v>
+        <v>11.24903942842594</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.890850180318186</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.736139146947353</v>
       </c>
       <c r="N16">
-        <v>5.267180920932506</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.51657132570066</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.43943969069144</v>
+        <v>5.301587033326599</v>
       </c>
       <c r="Q16">
-        <v>11.10116466390389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.45910133080391</v>
+      </c>
+      <c r="R16">
+        <v>13.51904655377603</v>
+      </c>
+      <c r="S16">
+        <v>10.9059175105573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.91420283728864</v>
+        <v>19.75657699772971</v>
       </c>
       <c r="C17">
-        <v>15.04023580278644</v>
+        <v>15.04136090147069</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.326958944127758</v>
+        <v>9.266362672304556</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>16.11744497381802</v>
+        <v>15.34097407078008</v>
       </c>
       <c r="H17">
-        <v>5.757670312253818</v>
+        <v>5.755132521214501</v>
       </c>
       <c r="I17">
-        <v>2.835966929573021</v>
+        <v>2.860751763302832</v>
       </c>
       <c r="J17">
-        <v>7.373766712479152</v>
+        <v>7.845435184752417</v>
       </c>
       <c r="K17">
-        <v>11.60490895804233</v>
+        <v>11.43317768543402</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.01408513925328</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.871956380501537</v>
       </c>
       <c r="N17">
-        <v>5.396375212652091</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.64683754880312</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.33181141047042</v>
+        <v>5.437211296519817</v>
       </c>
       <c r="Q17">
-        <v>11.2980408194237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.59625230744084</v>
+      </c>
+      <c r="R17">
+        <v>13.3946887466671</v>
+      </c>
+      <c r="S17">
+        <v>11.12861023349164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.89724070825222</v>
+        <v>19.72898171553623</v>
       </c>
       <c r="C18">
-        <v>14.60798885570351</v>
+        <v>14.63698032474057</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.055400876509484</v>
+        <v>8.985002673968427</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>16.96008446955208</v>
+        <v>15.99128697086605</v>
       </c>
       <c r="H18">
-        <v>4.492345644931663</v>
+        <v>4.488482686669443</v>
       </c>
       <c r="I18">
-        <v>2.820083488325846</v>
+        <v>2.845766037738502</v>
       </c>
       <c r="J18">
-        <v>7.521789473569111</v>
+        <v>8.02164194380963</v>
       </c>
       <c r="K18">
-        <v>11.87081539115555</v>
+        <v>11.67069328559771</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.17920841270798</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.064938876438422</v>
       </c>
       <c r="N18">
-        <v>5.707393334383253</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.08979303100318</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.1656776381671</v>
+        <v>5.75492264967551</v>
       </c>
       <c r="Q18">
-        <v>11.65946093544819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.03665884249835</v>
+      </c>
+      <c r="R18">
+        <v>13.22590254179617</v>
+      </c>
+      <c r="S18">
+        <v>11.47604319489187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.08780216118979</v>
+        <v>19.88951221178015</v>
       </c>
       <c r="C19">
-        <v>14.19669797634658</v>
+        <v>14.25809132588747</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.935151310241711</v>
+        <v>8.844086143539434</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>18.05376151338445</v>
+        <v>16.98075034737164</v>
       </c>
       <c r="H19">
-        <v>2.982780104855533</v>
+        <v>2.977806523038232</v>
       </c>
       <c r="I19">
-        <v>2.836221286286253</v>
+        <v>2.860987007496118</v>
       </c>
       <c r="J19">
-        <v>7.695616615093812</v>
+        <v>8.184546906468489</v>
       </c>
       <c r="K19">
-        <v>12.18163929971108</v>
+        <v>11.93821253689805</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.36751035282662</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.292816945342821</v>
       </c>
       <c r="N19">
-        <v>6.230267328326642</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>11.73881476715475</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.98435457419136</v>
+        <v>6.284545787593846</v>
       </c>
       <c r="Q19">
-        <v>12.10613941362829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.67740445230846</v>
+      </c>
+      <c r="R19">
+        <v>13.04971021295139</v>
+      </c>
+      <c r="S19">
+        <v>11.88470026315556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.87962570237164</v>
+        <v>20.60247861818402</v>
       </c>
       <c r="C20">
-        <v>13.80916623966201</v>
+        <v>13.91733648158051</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.210691654851411</v>
+        <v>9.077216495923663</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>19.88999952558724</v>
+        <v>18.94070704593489</v>
       </c>
       <c r="H20">
-        <v>1.771560530847038</v>
+        <v>1.771944878308214</v>
       </c>
       <c r="I20">
-        <v>2.92385884080152</v>
+        <v>2.938394643941912</v>
       </c>
       <c r="J20">
-        <v>7.951733887666963</v>
+        <v>8.307069054275678</v>
       </c>
       <c r="K20">
-        <v>12.63094484894223</v>
+        <v>12.29450511442934</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.59439081608832</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.656440662781888</v>
       </c>
       <c r="N20">
-        <v>7.238798739608939</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>12.92275202738608</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.7398300265646</v>
+        <v>7.300575011721416</v>
       </c>
       <c r="Q20">
-        <v>12.81513169067526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.83800261984271</v>
+      </c>
+      <c r="R20">
+        <v>12.82851593914625</v>
+      </c>
+      <c r="S20">
+        <v>12.48779066499872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.15502153475689</v>
+        <v>21.73062364923379</v>
       </c>
       <c r="C21">
-        <v>14.2355455164935</v>
+        <v>14.28863087193283</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.311322898549429</v>
+        <v>9.169345734682315</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>20.6343830475511</v>
+        <v>21.43785275870018</v>
       </c>
       <c r="H21">
-        <v>1.965812528725023</v>
+        <v>1.94522859259304</v>
       </c>
       <c r="I21">
-        <v>3.075036829873854</v>
+        <v>3.065700533998136</v>
       </c>
       <c r="J21">
-        <v>7.970677273098913</v>
+        <v>7.66650587031751</v>
       </c>
       <c r="K21">
-        <v>12.54561498732261</v>
+        <v>12.08312566958109</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.37265254698063</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.665366142438108</v>
       </c>
       <c r="N21">
-        <v>7.504721738460242</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>13.60573734892562</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.71122335433376</v>
+        <v>7.55808115822992</v>
       </c>
       <c r="Q21">
-        <v>12.99824984921634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.46641858566444</v>
+      </c>
+      <c r="R21">
+        <v>12.87674604146122</v>
+      </c>
+      <c r="S21">
+        <v>12.41579930457585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.94452854189392</v>
+        <v>22.42497709140362</v>
       </c>
       <c r="C22">
-        <v>14.51352127159441</v>
+        <v>14.52210716961294</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.354916002987075</v>
+        <v>9.211736887083692</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>21.08281889108457</v>
+        <v>23.13351814540736</v>
       </c>
       <c r="H22">
-        <v>2.086793607398269</v>
+        <v>2.0529644093798</v>
       </c>
       <c r="I22">
-        <v>3.165924799494747</v>
+        <v>3.140194058271351</v>
       </c>
       <c r="J22">
-        <v>7.979943683727433</v>
+        <v>7.292114863380567</v>
       </c>
       <c r="K22">
-        <v>12.48395749860867</v>
+        <v>11.93288922930252</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.22608862911272</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.670011019499993</v>
       </c>
       <c r="N22">
-        <v>7.624642207210197</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>13.994032886119</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.70081962499344</v>
+        <v>7.67209574400922</v>
       </c>
       <c r="Q22">
-        <v>13.1074297254119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.81810426388066</v>
+      </c>
+      <c r="R22">
+        <v>12.9205824747101</v>
+      </c>
+      <c r="S22">
+        <v>12.34586503418229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.53992664093237</v>
+        <v>22.08174126228214</v>
       </c>
       <c r="C23">
-        <v>14.34821810650532</v>
+        <v>14.39420019637397</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.334698303329562</v>
+        <v>9.190720337246297</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>20.87983291519728</v>
+        <v>22.06309399094017</v>
       </c>
       <c r="H23">
-        <v>2.023274726030575</v>
+        <v>1.997238084567721</v>
       </c>
       <c r="I23">
-        <v>3.113519161861793</v>
+        <v>3.095905576382302</v>
       </c>
       <c r="J23">
-        <v>7.980835372092423</v>
+        <v>7.544469959546928</v>
       </c>
       <c r="K23">
-        <v>12.53026092733442</v>
+        <v>12.03593822777971</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.31744238840564</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.688814242266147</v>
       </c>
       <c r="N23">
-        <v>7.559029475252685</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>13.79184772355269</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.70094614250129</v>
+        <v>7.610383287006174</v>
       </c>
       <c r="Q23">
-        <v>13.06419724110514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.64024067515221</v>
+      </c>
+      <c r="R23">
+        <v>12.88613739208273</v>
+      </c>
+      <c r="S23">
+        <v>12.4213497645868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.9100340944111</v>
+        <v>20.63076151637982</v>
       </c>
       <c r="C24">
-        <v>13.73570483069085</v>
+        <v>13.84492781840847</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.252407642512237</v>
+        <v>9.115877947516735</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>20.06025005627605</v>
+        <v>19.0899269306944</v>
       </c>
       <c r="H24">
-        <v>1.776009182153586</v>
+        <v>1.776322611701012</v>
       </c>
       <c r="I24">
-        <v>2.917807763168037</v>
+        <v>2.930071026327158</v>
       </c>
       <c r="J24">
-        <v>7.980715190295556</v>
+        <v>8.338058175156394</v>
       </c>
       <c r="K24">
-        <v>12.6929265792043</v>
+        <v>12.35027263964349</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.63399220942137</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.70289201983525</v>
       </c>
       <c r="N24">
-        <v>7.30909822875405</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>12.99114634295378</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.71542537871452</v>
+        <v>7.37162745951075</v>
       </c>
       <c r="Q24">
-        <v>12.88781500278383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.90587095911357</v>
+      </c>
+      <c r="R24">
+        <v>12.80305815001209</v>
+      </c>
+      <c r="S24">
+        <v>12.55732820779266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.9874295010149</v>
+        <v>18.78602349062082</v>
       </c>
       <c r="C25">
-        <v>13.04450507429414</v>
+        <v>13.05214217065645</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.161578115759706</v>
+        <v>9.044419879342467</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>19.19754058327924</v>
+        <v>18.13069541337333</v>
       </c>
       <c r="H25">
-        <v>1.625361423653105</v>
+        <v>1.605142029680983</v>
       </c>
       <c r="I25">
-        <v>2.699901401415</v>
+        <v>2.735716835855091</v>
       </c>
       <c r="J25">
-        <v>7.993842248337879</v>
+        <v>8.413838073459006</v>
       </c>
       <c r="K25">
-        <v>12.88857235117303</v>
+        <v>12.58711116117513</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.92273845334302</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.678365574693234</v>
       </c>
       <c r="N25">
-        <v>7.031034964033779</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.06767868076888</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.74198606599567</v>
+        <v>7.097438947044507</v>
       </c>
       <c r="Q25">
-        <v>12.72407543409115</v>
+        <v>12.00091330465436</v>
+      </c>
+      <c r="R25">
+        <v>12.77994877274223</v>
+      </c>
+      <c r="S25">
+        <v>12.46918546288376</v>
       </c>
     </row>
   </sheetData>
